--- a/Code/Results/Cases/Case_4_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.4403992753073</v>
+        <v>2.440399275307584</v>
       </c>
       <c r="C2">
-        <v>1.657832520733677</v>
+        <v>1.65783252073328</v>
       </c>
       <c r="D2">
-        <v>0.2079447738551892</v>
+        <v>0.2079447738548765</v>
       </c>
       <c r="E2">
-        <v>0.214646075077539</v>
+        <v>0.2146460750775319</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.600923879877485</v>
+        <v>9.600923879877456</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.9373303918537204</v>
+        <v>0.9373303918536919</v>
       </c>
       <c r="K2">
         <v>0.608279096368463</v>
@@ -453,13 +453,13 @@
         <v>2.059004964496921</v>
       </c>
       <c r="C3">
-        <v>1.414524521759688</v>
+        <v>1.414524521758665</v>
       </c>
       <c r="D3">
-        <v>0.1775473912550893</v>
+        <v>0.1775473912553167</v>
       </c>
       <c r="E3">
-        <v>0.1824630179427302</v>
+        <v>0.1824630179426521</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.7948092039174952</v>
+        <v>0.7948092039175378</v>
       </c>
       <c r="K3">
-        <v>0.5179780014483484</v>
+        <v>0.5179780014483626</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.836413944538862</v>
+        <v>1.836413944538975</v>
       </c>
       <c r="C4">
-        <v>1.270444386784959</v>
+        <v>1.270444386785357</v>
       </c>
       <c r="D4">
-        <v>0.1595393008216632</v>
+        <v>0.1595393008220327</v>
       </c>
       <c r="E4">
-        <v>0.1634632231633759</v>
+        <v>0.1634632231633333</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.596312451913832</v>
+        <v>7.596312451914002</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.7111159223042236</v>
+        <v>0.7111159223042165</v>
       </c>
       <c r="K4">
-        <v>0.4645899197704964</v>
+        <v>0.4645899197704821</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.748127681946215</v>
+        <v>1.748127681946528</v>
       </c>
       <c r="C5">
         <v>1.212832119048244</v>
       </c>
       <c r="D5">
-        <v>0.1523373970150601</v>
+        <v>0.1523373970146338</v>
       </c>
       <c r="E5">
-        <v>0.1558781309184596</v>
+        <v>0.1558781309183672</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.296408091663494</v>
+        <v>7.29640809166338</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6778057234226722</v>
+        <v>0.6778057234226509</v>
       </c>
       <c r="K5">
-        <v>0.4432600547689844</v>
+        <v>0.4432600547689489</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.733601161406966</v>
+        <v>1.733601161407165</v>
       </c>
       <c r="C6">
-        <v>1.203326015904281</v>
+        <v>1.203326015903826</v>
       </c>
       <c r="D6">
-        <v>0.1511490240303601</v>
+        <v>0.1511490240296354</v>
       </c>
       <c r="E6">
-        <v>0.154627255378621</v>
+        <v>0.1546272553785641</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6723183350386108</v>
+        <v>0.672318335038625</v>
       </c>
       <c r="K6">
-        <v>0.4397415951169279</v>
+        <v>0.4397415951168568</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.835214073818946</v>
+        <v>1.835214073819373</v>
       </c>
       <c r="C7">
-        <v>1.269663230412448</v>
+        <v>1.269663230412505</v>
       </c>
       <c r="D7">
-        <v>0.1594416549780391</v>
+        <v>0.1594416549780249</v>
       </c>
       <c r="E7">
-        <v>0.1633603311303773</v>
+        <v>0.1633603311304981</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.592249414362811</v>
+        <v>7.592249414362783</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0.7106636660076404</v>
       </c>
       <c r="K7">
-        <v>0.4643006420027902</v>
+        <v>0.4643006420027476</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.306166392355976</v>
+        <v>2.306166392355919</v>
       </c>
       <c r="C8">
-        <v>1.572684022103715</v>
+        <v>1.572684022103317</v>
       </c>
       <c r="D8">
-        <v>0.1973090010241947</v>
+        <v>0.1973090010242657</v>
       </c>
       <c r="E8">
-        <v>0.2033692858224398</v>
+        <v>0.2033692858223404</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.161983054940777</v>
+        <v>9.16198305494072</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.8872896501657692</v>
+        <v>0.887289650165755</v>
       </c>
       <c r="K8">
-        <v>0.5766566104288131</v>
+        <v>0.5766566104288557</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.349341512870751</v>
+        <v>3.349341512870467</v>
       </c>
       <c r="C9">
-        <v>2.22214188335181</v>
+        <v>2.222141883351185</v>
       </c>
       <c r="D9">
-        <v>0.2783552909481983</v>
+        <v>0.2783552909482694</v>
       </c>
       <c r="E9">
-        <v>0.2897594850686147</v>
+        <v>0.2897594850687355</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.48858364860388</v>
+        <v>12.48858364860376</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.273129727233012</v>
+        <v>1.273129727233027</v>
       </c>
       <c r="K9">
-        <v>0.8184088132960881</v>
+        <v>0.8184088132960738</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.239668916511732</v>
+        <v>4.239668916512073</v>
       </c>
       <c r="C10">
-        <v>2.756836425147526</v>
+        <v>2.756836425148663</v>
       </c>
       <c r="D10">
-        <v>0.3449131052373247</v>
+        <v>0.3449131052370404</v>
       </c>
       <c r="E10">
-        <v>0.3615421907403729</v>
+        <v>0.3615421907404297</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>1.597558882357703</v>
       </c>
       <c r="K10">
-        <v>1.018408455820691</v>
+        <v>1.018408455820776</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.688392284273334</v>
+        <v>4.688392284273448</v>
       </c>
       <c r="C11">
-        <v>3.020347072489471</v>
+        <v>3.020347072488732</v>
       </c>
       <c r="D11">
-        <v>0.3776451533755534</v>
+        <v>0.3776451533746723</v>
       </c>
       <c r="E11">
-        <v>0.3971421611941892</v>
+        <v>0.3971421611941111</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.51445003117681</v>
+        <v>16.51445003117703</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.759583144254918</v>
+        <v>1.759583144254975</v>
       </c>
       <c r="K11">
-        <v>1.117301046624632</v>
+        <v>1.117301046624732</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.866649713035315</v>
+        <v>4.866649713035258</v>
       </c>
       <c r="C12">
-        <v>3.123988858545431</v>
+        <v>3.123988858546113</v>
       </c>
       <c r="D12">
-        <v>0.3905050265151857</v>
+        <v>0.3905050265151431</v>
       </c>
       <c r="E12">
-        <v>0.4111853793359401</v>
+        <v>0.411185379335933</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17.0322689662359</v>
+        <v>17.03226896623596</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.823689448771347</v>
+        <v>1.82368944877139</v>
       </c>
       <c r="K12">
-        <v>1.156257168705636</v>
+        <v>1.156257168705693</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.827847092706804</v>
+        <v>4.827847092707316</v>
       </c>
       <c r="C13">
-        <v>3.101477538248275</v>
+        <v>3.101477538247025</v>
       </c>
       <c r="D13">
-        <v>0.3877125221576136</v>
+        <v>0.3877125221579831</v>
       </c>
       <c r="E13">
-        <v>0.4081331456622124</v>
+        <v>0.4081331456621413</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,16 +848,16 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16.91989359896291</v>
+        <v>16.91989359896303</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.809747182908723</v>
+        <v>1.809747182908751</v>
       </c>
       <c r="K13">
-        <v>1.147792846007647</v>
+        <v>1.147792846007789</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.702876108740554</v>
+        <v>4.702876108740895</v>
       </c>
       <c r="C14">
-        <v>3.028789856153082</v>
+        <v>3.028789856150979</v>
       </c>
       <c r="D14">
-        <v>0.378693039643835</v>
+        <v>0.3786930396434656</v>
       </c>
       <c r="E14">
-        <v>0.3982852589545089</v>
+        <v>0.3982852589545445</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.55667461084812</v>
+        <v>16.55667461084818</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>1.764797315398766</v>
       </c>
       <c r="K14">
-        <v>1.120473171492279</v>
+        <v>1.120473171492179</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.62748693630698</v>
+        <v>4.627486936306809</v>
       </c>
       <c r="C15">
-        <v>2.984802366894996</v>
+        <v>2.984802366892495</v>
       </c>
       <c r="D15">
-        <v>0.3732328943489875</v>
+        <v>0.373232894348277</v>
       </c>
       <c r="E15">
-        <v>0.3923313446183556</v>
+        <v>0.3923313446184764</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16.3365992440439</v>
+        <v>16.33659924404384</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.737646717895174</v>
+        <v>1.73764671789516</v>
       </c>
       <c r="K15">
-        <v>1.103948675610155</v>
+        <v>1.103948675610241</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.211382573930393</v>
+        <v>4.211382573930621</v>
       </c>
       <c r="C16">
-        <v>2.740096569388186</v>
+        <v>2.740096569388754</v>
       </c>
       <c r="D16">
         <v>0.3428321089512565</v>
       </c>
       <c r="E16">
-        <v>0.3592857024528797</v>
+        <v>0.35928570245283</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.587313226728682</v>
+        <v>1.587313226728696</v>
       </c>
       <c r="K16">
         <v>1.012133566690949</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.968558543446932</v>
+        <v>3.968558543446534</v>
       </c>
       <c r="C17">
-        <v>2.595744665541531</v>
+        <v>2.595744665541019</v>
       </c>
       <c r="D17">
-        <v>0.3248794098231258</v>
+        <v>0.3248794098231826</v>
       </c>
       <c r="E17">
-        <v>0.3398522087145182</v>
+        <v>0.3398522087143903</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.38124668495345</v>
+        <v>14.38124668495331</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.499197920393371</v>
+        <v>1.4991979203933</v>
       </c>
       <c r="K17">
-        <v>0.9580599367506295</v>
+        <v>0.9580599367506721</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.832851173677227</v>
+        <v>3.832851173677341</v>
       </c>
       <c r="C18">
-        <v>2.514554625008145</v>
+        <v>2.514554625007975</v>
       </c>
       <c r="D18">
-        <v>0.3147760844939569</v>
+        <v>0.31477608449363</v>
       </c>
       <c r="E18">
-        <v>0.3289413302333557</v>
+        <v>0.3289413302333699</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.449824350181757</v>
+        <v>1.449824350181686</v>
       </c>
       <c r="K18">
-        <v>0.9276749156782245</v>
+        <v>0.9276749156782387</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.787531433420497</v>
+        <v>3.787531433420895</v>
       </c>
       <c r="C19">
-        <v>2.487356942094209</v>
+        <v>2.487356942094664</v>
       </c>
       <c r="D19">
-        <v>0.3113906725784261</v>
+        <v>0.3113906725787103</v>
       </c>
       <c r="E19">
-        <v>0.325289424486698</v>
+        <v>0.3252894244868187</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.83367664828933</v>
+        <v>13.83367664828941</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.433315006912281</v>
+        <v>1.433315006912224</v>
       </c>
       <c r="K19">
-        <v>0.917500856209017</v>
+        <v>0.9175008562089886</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.993985262536796</v>
+        <v>3.993985262537251</v>
       </c>
       <c r="C20">
-        <v>2.610915206148547</v>
+        <v>2.610915206148604</v>
       </c>
       <c r="D20">
-        <v>0.3267667747016247</v>
+        <v>0.3267667747018947</v>
       </c>
       <c r="E20">
-        <v>0.3418924751085157</v>
+        <v>0.3418924751085299</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.45778913765815</v>
+        <v>14.45778913765824</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.508438413441638</v>
+        <v>1.508438413441723</v>
       </c>
       <c r="K20">
-        <v>0.9637397100816827</v>
+        <v>0.9637397100816401</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.739336758279194</v>
+        <v>4.739336758279535</v>
       </c>
       <c r="C21">
-        <v>3.050026141330932</v>
+        <v>3.05002614133133</v>
       </c>
       <c r="D21">
-        <v>0.3813285691311137</v>
+        <v>0.381328569131071</v>
       </c>
       <c r="E21">
-        <v>0.401161201545726</v>
+        <v>0.4011612015458326</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.66284961781997</v>
+        <v>16.66284961782009</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.777918895883076</v>
+        <v>1.777918895883104</v>
       </c>
       <c r="K21">
-        <v>1.128453081560266</v>
+        <v>1.128453081560281</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.276635051532992</v>
+        <v>5.276635051532594</v>
       </c>
       <c r="C22">
-        <v>3.360205484383926</v>
+        <v>3.360205484384949</v>
       </c>
       <c r="D22">
-        <v>0.419783083190282</v>
+        <v>0.419783083189742</v>
       </c>
       <c r="E22">
-        <v>0.4432808846304752</v>
+        <v>0.4432808846304539</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18.20819946439116</v>
+        <v>18.20819946439161</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.970595381550112</v>
+        <v>1.970595381550154</v>
       </c>
       <c r="K22">
-        <v>1.245174349593441</v>
+        <v>1.245174349593512</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.984381806758734</v>
+        <v>4.98438180675862</v>
       </c>
       <c r="C23">
-        <v>3.192125481908192</v>
+        <v>3.192125481909159</v>
       </c>
       <c r="D23">
-        <v>0.3989548840820163</v>
+        <v>0.3989548840822863</v>
       </c>
       <c r="E23">
-        <v>0.4204305999394364</v>
+        <v>0.4204305999394933</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,16 +1228,16 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17.37207611980068</v>
+        <v>17.37207611980085</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.865950869023109</v>
+        <v>1.865950869023081</v>
       </c>
       <c r="K23">
-        <v>1.181886699462837</v>
+        <v>1.181886699462808</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.982477853030957</v>
+        <v>3.98247785303073</v>
       </c>
       <c r="C24">
-        <v>2.604051064727287</v>
+        <v>2.604051064727173</v>
       </c>
       <c r="D24">
-        <v>0.3259128261287429</v>
+        <v>0.325912826128274</v>
       </c>
       <c r="E24">
-        <v>0.3409692652592469</v>
+        <v>0.3409692652594174</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.42315933417655</v>
+        <v>14.4231593341766</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.504256831010011</v>
+        <v>1.504256831009997</v>
       </c>
       <c r="K24">
-        <v>0.9611697219455664</v>
+        <v>0.9611697219455522</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.049860801532304</v>
+        <v>3.049860801532247</v>
       </c>
       <c r="C25">
-        <v>2.038431094814825</v>
+        <v>2.038431094814314</v>
       </c>
       <c r="D25">
-        <v>0.2554495279646716</v>
+        <v>0.2554495279646858</v>
       </c>
       <c r="E25">
-        <v>0.2652341475688971</v>
+        <v>0.2652341475689539</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.55242752285247</v>
+        <v>11.55242752285233</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.163041444299793</v>
+        <v>1.163041444299736</v>
       </c>
       <c r="K25">
-        <v>0.7498950267392388</v>
+        <v>0.7498950267392033</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.440399275307584</v>
+        <v>2.4403992753073</v>
       </c>
       <c r="C2">
-        <v>1.65783252073328</v>
+        <v>1.657832520733677</v>
       </c>
       <c r="D2">
-        <v>0.2079447738548765</v>
+        <v>0.2079447738551892</v>
       </c>
       <c r="E2">
-        <v>0.2146460750775319</v>
+        <v>0.214646075077539</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.600923879877456</v>
+        <v>9.600923879877485</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.9373303918536919</v>
+        <v>0.9373303918537204</v>
       </c>
       <c r="K2">
         <v>0.608279096368463</v>
@@ -453,13 +453,13 @@
         <v>2.059004964496921</v>
       </c>
       <c r="C3">
-        <v>1.414524521758665</v>
+        <v>1.414524521759688</v>
       </c>
       <c r="D3">
-        <v>0.1775473912553167</v>
+        <v>0.1775473912550893</v>
       </c>
       <c r="E3">
-        <v>0.1824630179426521</v>
+        <v>0.1824630179427302</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.7948092039175378</v>
+        <v>0.7948092039174952</v>
       </c>
       <c r="K3">
-        <v>0.5179780014483626</v>
+        <v>0.5179780014483484</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.836413944538975</v>
+        <v>1.836413944538862</v>
       </c>
       <c r="C4">
-        <v>1.270444386785357</v>
+        <v>1.270444386784959</v>
       </c>
       <c r="D4">
-        <v>0.1595393008220327</v>
+        <v>0.1595393008216632</v>
       </c>
       <c r="E4">
-        <v>0.1634632231633333</v>
+        <v>0.1634632231633759</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.596312451914002</v>
+        <v>7.596312451913832</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.7111159223042165</v>
+        <v>0.7111159223042236</v>
       </c>
       <c r="K4">
-        <v>0.4645899197704821</v>
+        <v>0.4645899197704964</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.748127681946528</v>
+        <v>1.748127681946215</v>
       </c>
       <c r="C5">
         <v>1.212832119048244</v>
       </c>
       <c r="D5">
-        <v>0.1523373970146338</v>
+        <v>0.1523373970150601</v>
       </c>
       <c r="E5">
-        <v>0.1558781309183672</v>
+        <v>0.1558781309184596</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.29640809166338</v>
+        <v>7.296408091663494</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6778057234226509</v>
+        <v>0.6778057234226722</v>
       </c>
       <c r="K5">
-        <v>0.4432600547689489</v>
+        <v>0.4432600547689844</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.733601161407165</v>
+        <v>1.733601161406966</v>
       </c>
       <c r="C6">
-        <v>1.203326015903826</v>
+        <v>1.203326015904281</v>
       </c>
       <c r="D6">
-        <v>0.1511490240296354</v>
+        <v>0.1511490240303601</v>
       </c>
       <c r="E6">
-        <v>0.1546272553785641</v>
+        <v>0.154627255378621</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.672318335038625</v>
+        <v>0.6723183350386108</v>
       </c>
       <c r="K6">
-        <v>0.4397415951168568</v>
+        <v>0.4397415951169279</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.835214073819373</v>
+        <v>1.835214073818946</v>
       </c>
       <c r="C7">
-        <v>1.269663230412505</v>
+        <v>1.269663230412448</v>
       </c>
       <c r="D7">
-        <v>0.1594416549780249</v>
+        <v>0.1594416549780391</v>
       </c>
       <c r="E7">
-        <v>0.1633603311304981</v>
+        <v>0.1633603311303773</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.592249414362783</v>
+        <v>7.592249414362811</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0.7106636660076404</v>
       </c>
       <c r="K7">
-        <v>0.4643006420027476</v>
+        <v>0.4643006420027902</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.306166392355919</v>
+        <v>2.306166392355976</v>
       </c>
       <c r="C8">
-        <v>1.572684022103317</v>
+        <v>1.572684022103715</v>
       </c>
       <c r="D8">
-        <v>0.1973090010242657</v>
+        <v>0.1973090010241947</v>
       </c>
       <c r="E8">
-        <v>0.2033692858223404</v>
+        <v>0.2033692858224398</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.16198305494072</v>
+        <v>9.161983054940777</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.887289650165755</v>
+        <v>0.8872896501657692</v>
       </c>
       <c r="K8">
-        <v>0.5766566104288557</v>
+        <v>0.5766566104288131</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.349341512870467</v>
+        <v>3.349341512870751</v>
       </c>
       <c r="C9">
-        <v>2.222141883351185</v>
+        <v>2.22214188335181</v>
       </c>
       <c r="D9">
-        <v>0.2783552909482694</v>
+        <v>0.2783552909481983</v>
       </c>
       <c r="E9">
-        <v>0.2897594850687355</v>
+        <v>0.2897594850686147</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.48858364860376</v>
+        <v>12.48858364860388</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.273129727233027</v>
+        <v>1.273129727233012</v>
       </c>
       <c r="K9">
-        <v>0.8184088132960738</v>
+        <v>0.8184088132960881</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.239668916512073</v>
+        <v>4.239668916511732</v>
       </c>
       <c r="C10">
-        <v>2.756836425148663</v>
+        <v>2.756836425147526</v>
       </c>
       <c r="D10">
-        <v>0.3449131052370404</v>
+        <v>0.3449131052373247</v>
       </c>
       <c r="E10">
-        <v>0.3615421907404297</v>
+        <v>0.3615421907403729</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>1.597558882357703</v>
       </c>
       <c r="K10">
-        <v>1.018408455820776</v>
+        <v>1.018408455820691</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.688392284273448</v>
+        <v>4.688392284273334</v>
       </c>
       <c r="C11">
-        <v>3.020347072488732</v>
+        <v>3.020347072489471</v>
       </c>
       <c r="D11">
-        <v>0.3776451533746723</v>
+        <v>0.3776451533755534</v>
       </c>
       <c r="E11">
-        <v>0.3971421611941111</v>
+        <v>0.3971421611941892</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.51445003117703</v>
+        <v>16.51445003117681</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.759583144254975</v>
+        <v>1.759583144254918</v>
       </c>
       <c r="K11">
-        <v>1.117301046624732</v>
+        <v>1.117301046624632</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.866649713035258</v>
+        <v>4.866649713035315</v>
       </c>
       <c r="C12">
-        <v>3.123988858546113</v>
+        <v>3.123988858545431</v>
       </c>
       <c r="D12">
-        <v>0.3905050265151431</v>
+        <v>0.3905050265151857</v>
       </c>
       <c r="E12">
-        <v>0.411185379335933</v>
+        <v>0.4111853793359401</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17.03226896623596</v>
+        <v>17.0322689662359</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.82368944877139</v>
+        <v>1.823689448771347</v>
       </c>
       <c r="K12">
-        <v>1.156257168705693</v>
+        <v>1.156257168705636</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.827847092707316</v>
+        <v>4.827847092706804</v>
       </c>
       <c r="C13">
-        <v>3.101477538247025</v>
+        <v>3.101477538248275</v>
       </c>
       <c r="D13">
-        <v>0.3877125221579831</v>
+        <v>0.3877125221576136</v>
       </c>
       <c r="E13">
-        <v>0.4081331456621413</v>
+        <v>0.4081331456622124</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,16 +848,16 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16.91989359896303</v>
+        <v>16.91989359896291</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.809747182908751</v>
+        <v>1.809747182908723</v>
       </c>
       <c r="K13">
-        <v>1.147792846007789</v>
+        <v>1.147792846007647</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.702876108740895</v>
+        <v>4.702876108740554</v>
       </c>
       <c r="C14">
-        <v>3.028789856150979</v>
+        <v>3.028789856153082</v>
       </c>
       <c r="D14">
-        <v>0.3786930396434656</v>
+        <v>0.378693039643835</v>
       </c>
       <c r="E14">
-        <v>0.3982852589545445</v>
+        <v>0.3982852589545089</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.55667461084818</v>
+        <v>16.55667461084812</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>1.764797315398766</v>
       </c>
       <c r="K14">
-        <v>1.120473171492179</v>
+        <v>1.120473171492279</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.627486936306809</v>
+        <v>4.62748693630698</v>
       </c>
       <c r="C15">
-        <v>2.984802366892495</v>
+        <v>2.984802366894996</v>
       </c>
       <c r="D15">
-        <v>0.373232894348277</v>
+        <v>0.3732328943489875</v>
       </c>
       <c r="E15">
-        <v>0.3923313446184764</v>
+        <v>0.3923313446183556</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16.33659924404384</v>
+        <v>16.3365992440439</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.73764671789516</v>
+        <v>1.737646717895174</v>
       </c>
       <c r="K15">
-        <v>1.103948675610241</v>
+        <v>1.103948675610155</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.211382573930621</v>
+        <v>4.211382573930393</v>
       </c>
       <c r="C16">
-        <v>2.740096569388754</v>
+        <v>2.740096569388186</v>
       </c>
       <c r="D16">
         <v>0.3428321089512565</v>
       </c>
       <c r="E16">
-        <v>0.35928570245283</v>
+        <v>0.3592857024528797</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.587313226728696</v>
+        <v>1.587313226728682</v>
       </c>
       <c r="K16">
         <v>1.012133566690949</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.968558543446534</v>
+        <v>3.968558543446932</v>
       </c>
       <c r="C17">
-        <v>2.595744665541019</v>
+        <v>2.595744665541531</v>
       </c>
       <c r="D17">
-        <v>0.3248794098231826</v>
+        <v>0.3248794098231258</v>
       </c>
       <c r="E17">
-        <v>0.3398522087143903</v>
+        <v>0.3398522087145182</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.38124668495331</v>
+        <v>14.38124668495345</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.4991979203933</v>
+        <v>1.499197920393371</v>
       </c>
       <c r="K17">
-        <v>0.9580599367506721</v>
+        <v>0.9580599367506295</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.832851173677341</v>
+        <v>3.832851173677227</v>
       </c>
       <c r="C18">
-        <v>2.514554625007975</v>
+        <v>2.514554625008145</v>
       </c>
       <c r="D18">
-        <v>0.31477608449363</v>
+        <v>0.3147760844939569</v>
       </c>
       <c r="E18">
-        <v>0.3289413302333699</v>
+        <v>0.3289413302333557</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.449824350181686</v>
+        <v>1.449824350181757</v>
       </c>
       <c r="K18">
-        <v>0.9276749156782387</v>
+        <v>0.9276749156782245</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.787531433420895</v>
+        <v>3.787531433420497</v>
       </c>
       <c r="C19">
-        <v>2.487356942094664</v>
+        <v>2.487356942094209</v>
       </c>
       <c r="D19">
-        <v>0.3113906725787103</v>
+        <v>0.3113906725784261</v>
       </c>
       <c r="E19">
-        <v>0.3252894244868187</v>
+        <v>0.325289424486698</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.83367664828941</v>
+        <v>13.83367664828933</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.433315006912224</v>
+        <v>1.433315006912281</v>
       </c>
       <c r="K19">
-        <v>0.9175008562089886</v>
+        <v>0.917500856209017</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.993985262537251</v>
+        <v>3.993985262536796</v>
       </c>
       <c r="C20">
-        <v>2.610915206148604</v>
+        <v>2.610915206148547</v>
       </c>
       <c r="D20">
-        <v>0.3267667747018947</v>
+        <v>0.3267667747016247</v>
       </c>
       <c r="E20">
-        <v>0.3418924751085299</v>
+        <v>0.3418924751085157</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.45778913765824</v>
+        <v>14.45778913765815</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.508438413441723</v>
+        <v>1.508438413441638</v>
       </c>
       <c r="K20">
-        <v>0.9637397100816401</v>
+        <v>0.9637397100816827</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.739336758279535</v>
+        <v>4.739336758279194</v>
       </c>
       <c r="C21">
-        <v>3.05002614133133</v>
+        <v>3.050026141330932</v>
       </c>
       <c r="D21">
-        <v>0.381328569131071</v>
+        <v>0.3813285691311137</v>
       </c>
       <c r="E21">
-        <v>0.4011612015458326</v>
+        <v>0.401161201545726</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.66284961782009</v>
+        <v>16.66284961781997</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.777918895883104</v>
+        <v>1.777918895883076</v>
       </c>
       <c r="K21">
-        <v>1.128453081560281</v>
+        <v>1.128453081560266</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.276635051532594</v>
+        <v>5.276635051532992</v>
       </c>
       <c r="C22">
-        <v>3.360205484384949</v>
+        <v>3.360205484383926</v>
       </c>
       <c r="D22">
-        <v>0.419783083189742</v>
+        <v>0.419783083190282</v>
       </c>
       <c r="E22">
-        <v>0.4432808846304539</v>
+        <v>0.4432808846304752</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18.20819946439161</v>
+        <v>18.20819946439116</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.970595381550154</v>
+        <v>1.970595381550112</v>
       </c>
       <c r="K22">
-        <v>1.245174349593512</v>
+        <v>1.245174349593441</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.98438180675862</v>
+        <v>4.984381806758734</v>
       </c>
       <c r="C23">
-        <v>3.192125481909159</v>
+        <v>3.192125481908192</v>
       </c>
       <c r="D23">
-        <v>0.3989548840822863</v>
+        <v>0.3989548840820163</v>
       </c>
       <c r="E23">
-        <v>0.4204305999394933</v>
+        <v>0.4204305999394364</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,16 +1228,16 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17.37207611980085</v>
+        <v>17.37207611980068</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.865950869023081</v>
+        <v>1.865950869023109</v>
       </c>
       <c r="K23">
-        <v>1.181886699462808</v>
+        <v>1.181886699462837</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.98247785303073</v>
+        <v>3.982477853030957</v>
       </c>
       <c r="C24">
-        <v>2.604051064727173</v>
+        <v>2.604051064727287</v>
       </c>
       <c r="D24">
-        <v>0.325912826128274</v>
+        <v>0.3259128261287429</v>
       </c>
       <c r="E24">
-        <v>0.3409692652594174</v>
+        <v>0.3409692652592469</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.4231593341766</v>
+        <v>14.42315933417655</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.504256831009997</v>
+        <v>1.504256831010011</v>
       </c>
       <c r="K24">
-        <v>0.9611697219455522</v>
+        <v>0.9611697219455664</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.049860801532247</v>
+        <v>3.049860801532304</v>
       </c>
       <c r="C25">
-        <v>2.038431094814314</v>
+        <v>2.038431094814825</v>
       </c>
       <c r="D25">
-        <v>0.2554495279646858</v>
+        <v>0.2554495279646716</v>
       </c>
       <c r="E25">
-        <v>0.2652341475689539</v>
+        <v>0.2652341475688971</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.55242752285233</v>
+        <v>11.55242752285247</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.163041444299736</v>
+        <v>1.163041444299793</v>
       </c>
       <c r="K25">
-        <v>0.7498950267392033</v>
+        <v>0.7498950267392388</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.4403992753073</v>
+        <v>2.407453564250318</v>
       </c>
       <c r="C2">
-        <v>1.657832520733677</v>
+        <v>1.644065940330961</v>
       </c>
       <c r="D2">
-        <v>0.2079447738551892</v>
+        <v>0.2066422835065822</v>
       </c>
       <c r="E2">
-        <v>0.214646075077539</v>
+        <v>0.2137479960906177</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007702154007851825</v>
       </c>
       <c r="H2">
-        <v>9.600923879877485</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9.604446264225913</v>
       </c>
       <c r="J2">
-        <v>0.9373303918537204</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.608279096368463</v>
+        <v>0.9263602097250327</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.604082943989269</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.059004964496921</v>
+        <v>2.032903991461325</v>
       </c>
       <c r="C3">
-        <v>1.414524521759688</v>
+        <v>1.404187083149736</v>
       </c>
       <c r="D3">
-        <v>0.1775473912550893</v>
+        <v>0.1764722674755461</v>
       </c>
       <c r="E3">
-        <v>0.1824630179427302</v>
+        <v>0.1817002477903245</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007855743215912966</v>
       </c>
       <c r="H3">
-        <v>8.344223028660821</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.356071537185812</v>
       </c>
       <c r="J3">
-        <v>0.7948092039174952</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5179780014483484</v>
+        <v>0.7862262741730461</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.5145981599101219</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.836413944538862</v>
+        <v>1.814392374741175</v>
       </c>
       <c r="C4">
-        <v>1.270444386784959</v>
+        <v>1.262147825479417</v>
       </c>
       <c r="D4">
-        <v>0.1595393008216632</v>
+        <v>0.1585943099707094</v>
       </c>
       <c r="E4">
-        <v>0.1634632231633759</v>
+        <v>0.1627719577480988</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000795071503688622</v>
       </c>
       <c r="H4">
-        <v>7.596312451913832</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>7.612914373515508</v>
       </c>
       <c r="J4">
-        <v>0.7111159223042236</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4645899197704964</v>
+        <v>0.7039568722042873</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.4616826252182804</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.748127681946215</v>
+        <v>1.72774813100682</v>
       </c>
       <c r="C5">
-        <v>1.212832119048244</v>
+        <v>1.205356089341706</v>
       </c>
       <c r="D5">
-        <v>0.1523373970150601</v>
+        <v>0.1514435666135512</v>
       </c>
       <c r="E5">
-        <v>0.1558781309184596</v>
+        <v>0.1552136449119814</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007989673170046715</v>
       </c>
       <c r="H5">
-        <v>7.296408091663494</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>7.314876083867318</v>
       </c>
       <c r="J5">
-        <v>0.6778057234226722</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4432600547689844</v>
+        <v>0.6712199597876705</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.4405398433522549</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.733601161406966</v>
+        <v>1.713493304832326</v>
       </c>
       <c r="C6">
-        <v>1.203326015904281</v>
+        <v>1.195985691529017</v>
       </c>
       <c r="D6">
-        <v>0.1511490240303601</v>
+        <v>0.1502635887660233</v>
       </c>
       <c r="E6">
-        <v>0.154627255378621</v>
+        <v>0.1539670873422025</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007996159954055843</v>
       </c>
       <c r="H6">
-        <v>7.246874957086618</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>7.265649008528612</v>
       </c>
       <c r="J6">
-        <v>0.6723183350386108</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4397415951169279</v>
+        <v>0.6658274357200185</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.4370521610014535</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.835214073818946</v>
+        <v>1.813214718928322</v>
       </c>
       <c r="C7">
-        <v>1.269663230412448</v>
+        <v>1.261377774210075</v>
       </c>
       <c r="D7">
-        <v>0.1594416549780391</v>
+        <v>0.1584973610687257</v>
       </c>
       <c r="E7">
-        <v>0.1633603311303773</v>
+        <v>0.1626694357873504</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007951239296573136</v>
       </c>
       <c r="H7">
-        <v>7.592249414362811</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>7.60887676736516</v>
       </c>
       <c r="J7">
-        <v>0.7106636660076404</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4643006420027902</v>
+        <v>0.7035123714267328</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.461395890712275</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.306166392355976</v>
+        <v>2.275613521555613</v>
       </c>
       <c r="C8">
-        <v>1.572684022103715</v>
+        <v>1.560116666055706</v>
       </c>
       <c r="D8">
-        <v>0.1973090010241947</v>
+        <v>0.196087218694629</v>
       </c>
       <c r="E8">
-        <v>0.2033692858224398</v>
+        <v>0.2025206397826835</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007755030895776442</v>
       </c>
       <c r="H8">
-        <v>9.161983054940777</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>9.168463776037044</v>
       </c>
       <c r="J8">
-        <v>0.8872896501657692</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5766566104288131</v>
+        <v>0.8771537064370563</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.5727490419876062</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.349341512870751</v>
+        <v>3.300388789596184</v>
       </c>
       <c r="C9">
-        <v>2.22214188335181</v>
+        <v>2.200355969798352</v>
       </c>
       <c r="D9">
-        <v>0.2783552909481983</v>
+        <v>0.2764829044657233</v>
       </c>
       <c r="E9">
-        <v>0.2897594850686147</v>
+        <v>0.288475207139065</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007370644179078121</v>
       </c>
       <c r="H9">
-        <v>12.48858364860388</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.47114689614597</v>
       </c>
       <c r="J9">
-        <v>1.273129727233012</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8184088132960881</v>
+        <v>1.256590855567552</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.8122013075810912</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.239668916511732</v>
+        <v>4.174877509449914</v>
       </c>
       <c r="C10">
-        <v>2.756836425147526</v>
+        <v>2.727149383537267</v>
       </c>
       <c r="D10">
-        <v>0.3449131052373247</v>
+        <v>0.3424334278832646</v>
       </c>
       <c r="E10">
-        <v>0.3615421907403729</v>
+        <v>0.3597882054013937</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.000707955491424491</v>
       </c>
       <c r="H10">
-        <v>15.19279752066325</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>15.15293752131385</v>
       </c>
       <c r="J10">
-        <v>1.597558882357703</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.018408455820691</v>
+        <v>1.575536220809312</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1.010088985132342</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.688392284273334</v>
+        <v>4.615384929877393</v>
       </c>
       <c r="C11">
-        <v>3.020347072489471</v>
+        <v>2.986584111035484</v>
       </c>
       <c r="D11">
-        <v>0.3776451533755534</v>
+        <v>0.3748364816044045</v>
       </c>
       <c r="E11">
-        <v>0.3971421611941892</v>
+        <v>0.3951133582304323</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006942368856938815</v>
       </c>
       <c r="H11">
-        <v>16.51445003117681</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>16.46242221074311</v>
       </c>
       <c r="J11">
-        <v>1.759583144254918</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.117301046624632</v>
+        <v>1.734727876248414</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.107844803378015</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.866649713035315</v>
+        <v>4.790315291094544</v>
       </c>
       <c r="C12">
-        <v>3.123988858545431</v>
+        <v>3.088580541489023</v>
       </c>
       <c r="D12">
-        <v>0.3905050265151857</v>
+        <v>0.3875607496209312</v>
       </c>
       <c r="E12">
-        <v>0.4111853793359401</v>
+        <v>0.409039630077956</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006889388257640307</v>
       </c>
       <c r="H12">
-        <v>17.0322689662359</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>16.97522363765216</v>
       </c>
       <c r="J12">
-        <v>1.823689448771347</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.156257168705636</v>
+        <v>1.79768954668404</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.146333319021224</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.827847092706804</v>
+        <v>4.752240333094903</v>
       </c>
       <c r="C13">
-        <v>3.101477538248275</v>
+        <v>3.066428809266483</v>
       </c>
       <c r="D13">
-        <v>0.3877125221576136</v>
+        <v>0.3847980145884122</v>
       </c>
       <c r="E13">
-        <v>0.4081331456622124</v>
+        <v>0.406013244754476</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006900851289408904</v>
       </c>
       <c r="H13">
-        <v>16.91989359896291</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>16.86394983676365</v>
       </c>
       <c r="J13">
-        <v>1.809747182908723</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.147792846007647</v>
+        <v>1.783997502513373</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.13797161089343</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.702876108740554</v>
+        <v>4.629599893176703</v>
       </c>
       <c r="C14">
-        <v>3.028789856153082</v>
+        <v>2.994893817828824</v>
       </c>
       <c r="D14">
-        <v>0.378693039643835</v>
+        <v>0.3758734584502577</v>
       </c>
       <c r="E14">
-        <v>0.3982852589545089</v>
+        <v>0.3962471240680259</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006938033198626847</v>
       </c>
       <c r="H14">
-        <v>16.55667461084812</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>16.5042431676921</v>
       </c>
       <c r="J14">
-        <v>1.764797315398766</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.120473171492279</v>
+        <v>1.739849496682425</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.110979291822048</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.62748693630698</v>
+        <v>4.555607441434063</v>
       </c>
       <c r="C15">
-        <v>2.984802366894996</v>
+        <v>2.95159787363616</v>
       </c>
       <c r="D15">
-        <v>0.3732328943489875</v>
+        <v>0.3704698914490905</v>
       </c>
       <c r="E15">
-        <v>0.3923313446183556</v>
+        <v>0.3903414589023626</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006960661568573171</v>
       </c>
       <c r="H15">
-        <v>16.3365992440439</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>16.28626098504719</v>
       </c>
       <c r="J15">
-        <v>1.737646717895174</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.103948675610155</v>
+        <v>1.713179795995629</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.094650021513559</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.211382573930393</v>
+        <v>4.147102471462802</v>
       </c>
       <c r="C16">
-        <v>2.740096569388186</v>
+        <v>2.710663754891527</v>
       </c>
       <c r="D16">
-        <v>0.3428321089512565</v>
+        <v>0.3403726133330593</v>
       </c>
       <c r="E16">
-        <v>0.3592857024528797</v>
+        <v>0.3575481422686906</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.000708839745920244</v>
       </c>
       <c r="H16">
-        <v>15.10859179932044</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>15.06947788720436</v>
       </c>
       <c r="J16">
-        <v>1.587313226728682</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.012133566690949</v>
+        <v>1.565467126647007</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.003883960002071</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.968558543446932</v>
+        <v>3.908641003217213</v>
       </c>
       <c r="C17">
-        <v>2.595744665541531</v>
+        <v>2.56848347257494</v>
       </c>
       <c r="D17">
-        <v>0.3248794098231258</v>
+        <v>0.3225906252571065</v>
       </c>
       <c r="E17">
-        <v>0.3398522087145182</v>
+        <v>0.33825145733109</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007165326510247816</v>
       </c>
       <c r="H17">
-        <v>14.38124668495345</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.34844166228891</v>
       </c>
       <c r="J17">
-        <v>1.499197920393371</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9580599367506295</v>
+        <v>1.478859583404954</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.9504020295592426</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.832851173677227</v>
+        <v>3.775353340643221</v>
       </c>
       <c r="C18">
-        <v>2.514554625008145</v>
+        <v>2.488499749938626</v>
       </c>
       <c r="D18">
-        <v>0.3147760844939569</v>
+        <v>0.3125807992432499</v>
       </c>
       <c r="E18">
-        <v>0.3289413302333557</v>
+        <v>0.3274138410047485</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.000720915130792379</v>
       </c>
       <c r="H18">
-        <v>13.97119426279818</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.94184288221055</v>
       </c>
       <c r="J18">
-        <v>1.449824350181757</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9276749156782245</v>
+        <v>1.430323286714653</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.9203417149963258</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.787531433420497</v>
+        <v>3.730839140435819</v>
       </c>
       <c r="C19">
-        <v>2.487356942094209</v>
+        <v>2.461703929201576</v>
       </c>
       <c r="D19">
-        <v>0.3113906725784261</v>
+        <v>0.3092263193286442</v>
       </c>
       <c r="E19">
-        <v>0.325289424486698</v>
+        <v>0.3237859025767591</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.000722392576326142</v>
       </c>
       <c r="H19">
-        <v>13.83367664828933</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.80546750749673</v>
       </c>
       <c r="J19">
-        <v>1.433315006912281</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.917500856209017</v>
+        <v>1.414092831959749</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9102751868433927</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.993985262536796</v>
+        <v>3.933612992911719</v>
       </c>
       <c r="C20">
-        <v>2.610915206148547</v>
+        <v>2.583427453250295</v>
       </c>
       <c r="D20">
-        <v>0.3267667747016247</v>
+        <v>0.3244603228175151</v>
       </c>
       <c r="E20">
-        <v>0.3418924751085157</v>
+        <v>0.3402777451822772</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007157183176087013</v>
       </c>
       <c r="H20">
-        <v>14.45778913765815</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.42433137561829</v>
       </c>
       <c r="J20">
-        <v>1.508438413441638</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9637397100816827</v>
+        <v>1.487942807756298</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.9560205005170417</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.739336758279194</v>
+        <v>4.665382605097761</v>
       </c>
       <c r="C21">
-        <v>3.050026141330932</v>
+        <v>3.015794636820715</v>
       </c>
       <c r="D21">
-        <v>0.3813285691311137</v>
+        <v>0.3784814410807371</v>
       </c>
       <c r="E21">
-        <v>0.401161201545726</v>
+        <v>0.3990994429679091</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006927143325818896</v>
       </c>
       <c r="H21">
-        <v>16.66284961781997</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>16.60939897638821</v>
       </c>
       <c r="J21">
-        <v>1.777918895883076</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.128453081560266</v>
+        <v>1.752737750071375</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.118864182218445</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.276635051532992</v>
+        <v>5.192482437446074</v>
       </c>
       <c r="C22">
-        <v>3.360205484383926</v>
+        <v>3.320943418526895</v>
       </c>
       <c r="D22">
-        <v>0.419783083190282</v>
+        <v>0.416515234096309</v>
       </c>
       <c r="E22">
-        <v>0.4432808846304752</v>
+        <v>0.4408481148950543</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006770526116173237</v>
       </c>
       <c r="H22">
-        <v>18.20819946439116</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>18.13917923175978</v>
       </c>
       <c r="J22">
-        <v>1.970595381550112</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.245174349593441</v>
+        <v>1.941911319664882</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.234136283350708</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.984381806758734</v>
+        <v>4.905827218316915</v>
       </c>
       <c r="C23">
-        <v>3.192125481908192</v>
+        <v>3.155620969350707</v>
       </c>
       <c r="D23">
-        <v>0.3989548840820163</v>
+        <v>0.3959194036704901</v>
       </c>
       <c r="E23">
-        <v>0.4204305999394364</v>
+        <v>0.4182050605315908</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006854839251387145</v>
       </c>
       <c r="H23">
-        <v>17.37207611980068</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>17.31165574149566</v>
       </c>
       <c r="J23">
-        <v>1.865950869023109</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.181886699462837</v>
+        <v>1.839187936549337</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.171648594332623</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.982477853030957</v>
+        <v>3.922311437109101</v>
       </c>
       <c r="C24">
-        <v>2.604051064727287</v>
+        <v>2.576665868733983</v>
       </c>
       <c r="D24">
-        <v>0.3259128261287429</v>
+        <v>0.3236143758739018</v>
       </c>
       <c r="E24">
-        <v>0.3409692652592469</v>
+        <v>0.3393608715498004</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007160866009556109</v>
       </c>
       <c r="H24">
-        <v>14.42315933417655</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.38999720719843</v>
       </c>
       <c r="J24">
-        <v>1.504256831010011</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9611697219455664</v>
+        <v>1.483832416992271</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9534782745701023</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.049860801532304</v>
+        <v>3.006169062515653</v>
       </c>
       <c r="C25">
-        <v>2.038431094814825</v>
+        <v>2.019278865490264</v>
       </c>
       <c r="D25">
-        <v>0.2554495279646716</v>
+        <v>0.2537698258245058</v>
       </c>
       <c r="E25">
-        <v>0.2652341475688971</v>
+        <v>0.2640871133374887</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007475378280384753</v>
       </c>
       <c r="H25">
-        <v>11.55242752285247</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.54208889719689</v>
       </c>
       <c r="J25">
-        <v>1.163041444299793</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7498950267392388</v>
+        <v>1.148330216267837</v>
       </c>
       <c r="L25">
+        <v>0.7443633189902386</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.407453564250318</v>
+        <v>4.700124558085065</v>
       </c>
       <c r="C2">
-        <v>1.644065940330961</v>
+        <v>1.349559886715781</v>
       </c>
       <c r="D2">
-        <v>0.2066422835065822</v>
+        <v>0.204656674534931</v>
       </c>
       <c r="E2">
-        <v>0.2137479960906177</v>
+        <v>0.09389164409440198</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007702154007851825</v>
+        <v>0.0007774306453041113</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.604446264225913</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9263602097250327</v>
+        <v>1.376812121881756</v>
       </c>
       <c r="L2">
-        <v>0.604082943989269</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1.386754137319201</v>
+      </c>
+      <c r="N2">
+        <v>3.903605022782273</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.032903991461325</v>
+        <v>4.037850476724486</v>
       </c>
       <c r="C3">
-        <v>1.404187083149736</v>
+        <v>1.153803030508698</v>
       </c>
       <c r="D3">
-        <v>0.1764722674755461</v>
+        <v>0.1751553511095949</v>
       </c>
       <c r="E3">
-        <v>0.1817002477903245</v>
+        <v>0.08021758013464364</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007855743215912966</v>
+        <v>0.0007913557214651768</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.356071537185812</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7862262741730461</v>
+        <v>1.181101741654459</v>
       </c>
       <c r="L3">
-        <v>0.5145981599101219</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>1.188690479554865</v>
+      </c>
+      <c r="N3">
+        <v>3.612961038656493</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.814392374741175</v>
+        <v>3.644267034090319</v>
       </c>
       <c r="C4">
-        <v>1.262147825479417</v>
+        <v>1.037560759443522</v>
       </c>
       <c r="D4">
-        <v>0.1585943099707094</v>
+        <v>0.1576018315987255</v>
       </c>
       <c r="E4">
-        <v>0.1627719577480988</v>
+        <v>0.07210393373742718</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.000795071503688622</v>
+        <v>0.0008000240744377287</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.612914373515508</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7039568722042873</v>
+        <v>1.064816983061121</v>
       </c>
       <c r="L4">
-        <v>0.4616826252182804</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>1.07103647911029</v>
+      </c>
+      <c r="N4">
+        <v>3.440124602050901</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.72774813100682</v>
+        <v>3.486644501397905</v>
       </c>
       <c r="C5">
-        <v>1.205356089341706</v>
+        <v>0.9910227583966957</v>
       </c>
       <c r="D5">
-        <v>0.1514435666135512</v>
+        <v>0.1505667377524986</v>
       </c>
       <c r="E5">
-        <v>0.1552136449119814</v>
+        <v>0.06885699879563134</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007989673170046715</v>
+        <v>0.0008035922659203951</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.314876083867318</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6712199597876705</v>
+        <v>1.018250856076193</v>
       </c>
       <c r="L5">
-        <v>0.4405398433522549</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1.023927696155397</v>
+      </c>
+      <c r="N5">
+        <v>3.370899122836988</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.713493304832326</v>
+        <v>3.460624635450529</v>
       </c>
       <c r="C6">
-        <v>1.195985691529017</v>
+        <v>0.98334105643832</v>
       </c>
       <c r="D6">
-        <v>0.1502635887660233</v>
+        <v>0.1494050891872973</v>
       </c>
       <c r="E6">
-        <v>0.1539670873422025</v>
+        <v>0.06832112972906401</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007996159954055843</v>
+        <v>0.0008041870829825989</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.265649008528612</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6658274357200185</v>
+        <v>1.010564013399986</v>
       </c>
       <c r="L6">
-        <v>0.4370521610014535</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1.016151572619407</v>
+      </c>
+      <c r="N6">
+        <v>3.359471633696188</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.813214718928322</v>
+        <v>3.642130715649273</v>
       </c>
       <c r="C7">
-        <v>1.261377774210075</v>
+        <v>1.036929962906413</v>
       </c>
       <c r="D7">
-        <v>0.1584973610687257</v>
+        <v>0.1575065036005299</v>
       </c>
       <c r="E7">
-        <v>0.1626694357873504</v>
+        <v>0.07205991788178423</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007951239296573136</v>
+        <v>0.0008000720441196929</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.60887676736516</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7035123714267328</v>
+        <v>1.064185842578212</v>
       </c>
       <c r="L7">
-        <v>0.461395890712275</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1.070397962666526</v>
+      </c>
+      <c r="N7">
+        <v>3.439186370455957</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.275613521555613</v>
+        <v>4.468728378366279</v>
       </c>
       <c r="C8">
-        <v>1.560116666055706</v>
+        <v>1.281137238379301</v>
       </c>
       <c r="D8">
-        <v>0.196087218694629</v>
+        <v>0.1943535542678347</v>
       </c>
       <c r="E8">
-        <v>0.2025206397826835</v>
+        <v>0.0891107677430476</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007755030895776442</v>
+        <v>0.0007822113454217996</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.168463776037044</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8771537064370563</v>
+        <v>1.308424906085307</v>
       </c>
       <c r="L8">
-        <v>0.5727490419876062</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1.317537395252856</v>
+      </c>
+      <c r="N8">
+        <v>3.802091309034097</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.300388789596184</v>
+        <v>6.22115028806769</v>
       </c>
       <c r="C9">
-        <v>2.200355969798352</v>
+        <v>1.800182762391103</v>
       </c>
       <c r="D9">
-        <v>0.2764829044657233</v>
+        <v>0.2722860588759772</v>
       </c>
       <c r="E9">
-        <v>0.288475207139065</v>
+        <v>0.1254108501159834</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007370644179078121</v>
+        <v>0.0007478019157975836</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.47114689614597</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.256590855567552</v>
+        <v>1.826565701326317</v>
       </c>
       <c r="L9">
-        <v>0.8122013075810912</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.842168316854298</v>
+      </c>
+      <c r="N9">
+        <v>4.569404567794152</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.174877509449914</v>
+        <v>7.637055456956602</v>
       </c>
       <c r="C10">
-        <v>2.727149383537267</v>
+        <v>2.221290737569802</v>
       </c>
       <c r="D10">
-        <v>0.3424334278832646</v>
+        <v>0.335127896350258</v>
       </c>
       <c r="E10">
-        <v>0.3597882054013937</v>
+        <v>0.154908744393051</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000707955491424491</v>
+        <v>0.0007223387679826584</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.15293752131385</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.575536220809312</v>
+        <v>2.245668068173416</v>
       </c>
       <c r="L10">
-        <v>1.010088985132342</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2.266882738082273</v>
+      </c>
+      <c r="N10">
+        <v>5.186100332273384</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.615384929877393</v>
+        <v>8.323572892198058</v>
       </c>
       <c r="C11">
-        <v>2.986584111035484</v>
+        <v>2.426122716438101</v>
       </c>
       <c r="D11">
-        <v>0.3748364816044045</v>
+        <v>0.3655666376515967</v>
       </c>
       <c r="E11">
-        <v>0.3951133582304323</v>
+        <v>0.1692689538681194</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006942368856938815</v>
+        <v>0.0007105482622538073</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.46242221074311</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.734727876248414</v>
+        <v>2.449048519259804</v>
       </c>
       <c r="L11">
-        <v>1.107844803378015</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2.473108118403943</v>
+      </c>
+      <c r="N11">
+        <v>5.483816150666541</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.790315291094544</v>
+        <v>8.591260094531378</v>
       </c>
       <c r="C12">
-        <v>3.088580541489023</v>
+        <v>2.506115144336491</v>
       </c>
       <c r="D12">
-        <v>0.3875607496209312</v>
+        <v>0.3774304580222889</v>
       </c>
       <c r="E12">
-        <v>0.409039630077956</v>
+        <v>0.1748788325379493</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006889388257640307</v>
+        <v>0.0007060350776270914</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.97522363765216</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.79768954668404</v>
+        <v>2.528383861365654</v>
       </c>
       <c r="L12">
-        <v>1.146333319021224</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2.553575095221575</v>
+      </c>
+      <c r="N12">
+        <v>5.599652759159937</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.752240333094903</v>
+        <v>8.533234973810067</v>
       </c>
       <c r="C13">
-        <v>3.066428809266483</v>
+        <v>2.488769548918469</v>
       </c>
       <c r="D13">
-        <v>0.3847980145884122</v>
+        <v>0.3748590254612907</v>
       </c>
       <c r="E13">
-        <v>0.406013244754476</v>
+        <v>0.1736623022110209</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006900851289408904</v>
+        <v>0.0007070095756396737</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.86394983676365</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.783997502513373</v>
+        <v>2.511185146021816</v>
       </c>
       <c r="L13">
-        <v>1.13797161089343</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2.536130010949236</v>
+      </c>
+      <c r="N13">
+        <v>5.574555639616278</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.629599893176703</v>
+        <v>8.345430131677347</v>
       </c>
       <c r="C14">
-        <v>2.994893817828824</v>
+        <v>2.432651605957403</v>
       </c>
       <c r="D14">
-        <v>0.3758734584502577</v>
+        <v>0.3665354439320083</v>
       </c>
       <c r="E14">
-        <v>0.3962471240680259</v>
+        <v>0.1697267891419969</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006938033198626847</v>
+        <v>0.0007101780541629456</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.5042431676921</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.739849496682425</v>
+        <v>2.455525710565695</v>
       </c>
       <c r="L14">
-        <v>1.110979291822048</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2.479677237902507</v>
+      </c>
+      <c r="N14">
+        <v>5.493279804341398</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.555607441434063</v>
+        <v>8.231454926183915</v>
       </c>
       <c r="C15">
-        <v>2.95159787363616</v>
+        <v>2.398611680618046</v>
       </c>
       <c r="D15">
-        <v>0.3704698914490905</v>
+        <v>0.3614833784045572</v>
       </c>
       <c r="E15">
-        <v>0.3903414589023626</v>
+        <v>0.1673398288319561</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006960661568573171</v>
+        <v>0.0007121119007638121</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.28626098504719</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.713179795995629</v>
+        <v>2.421751585536541</v>
       </c>
       <c r="L15">
-        <v>1.094650021513559</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2.445424671169619</v>
+      </c>
+      <c r="N15">
+        <v>5.44392097175961</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.147102471462802</v>
+        <v>7.593172209173247</v>
       </c>
       <c r="C16">
-        <v>2.710663754891527</v>
+        <v>2.208212712884517</v>
       </c>
       <c r="D16">
-        <v>0.3403726133330593</v>
+        <v>0.333181568949783</v>
       </c>
       <c r="E16">
-        <v>0.3575481422686906</v>
+        <v>0.153992125040908</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.000708839745920244</v>
+        <v>0.0007231036573994409</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.06947788720436</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.565467126647007</v>
+        <v>2.232671717116872</v>
       </c>
       <c r="L16">
-        <v>1.003883960002071</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2.253707317646843</v>
+      </c>
+      <c r="N16">
+        <v>5.167039597189159</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.908641003217213</v>
+        <v>7.213493792316967</v>
       </c>
       <c r="C17">
-        <v>2.56848347257494</v>
+        <v>2.095134945783514</v>
       </c>
       <c r="D17">
-        <v>0.3225906252571065</v>
+        <v>0.3163385563358929</v>
       </c>
       <c r="E17">
-        <v>0.33825145733109</v>
+        <v>0.1460679923403312</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007165326510247816</v>
+        <v>0.000729781920525828</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.34844166228891</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.478859583404954</v>
+        <v>2.120246701069092</v>
       </c>
       <c r="L17">
-        <v>0.9504020295592426</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2.139746831291887</v>
+      </c>
+      <c r="N17">
+        <v>5.001979647394336</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.775353340643221</v>
+        <v>6.998987248616459</v>
       </c>
       <c r="C18">
-        <v>2.488499749938626</v>
+        <v>2.031306535210035</v>
       </c>
       <c r="D18">
-        <v>0.3125807992432499</v>
+        <v>0.3068200186264392</v>
       </c>
       <c r="E18">
-        <v>0.3274138410047485</v>
+        <v>0.1415961871617313</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000720915130792379</v>
+        <v>0.0007336049312715095</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.94184288221055</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.430323286714653</v>
+        <v>2.056745239712058</v>
       </c>
       <c r="L18">
-        <v>0.9203417149963258</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2.07538878544932</v>
+      </c>
+      <c r="N18">
+        <v>4.908612814120943</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.730839140435819</v>
+        <v>6.926981805998025</v>
       </c>
       <c r="C19">
-        <v>2.461703929201576</v>
+        <v>2.009889670172868</v>
       </c>
       <c r="D19">
-        <v>0.3092263193286442</v>
+        <v>0.3036243776679726</v>
       </c>
       <c r="E19">
-        <v>0.3237859025767591</v>
+        <v>0.1400959093768215</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000722392576326142</v>
+        <v>0.0007348967098212977</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.80546750749673</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.414092831959749</v>
+        <v>2.035431504898725</v>
       </c>
       <c r="L19">
-        <v>0.9102751868433927</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2.053789267786215</v>
+      </c>
+      <c r="N19">
+        <v>4.877253681423099</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.933612992911719</v>
+        <v>7.253499834708805</v>
       </c>
       <c r="C20">
-        <v>2.583427453250295</v>
+        <v>2.107043618264754</v>
       </c>
       <c r="D20">
-        <v>0.3244603228175151</v>
+        <v>0.3181135646305222</v>
       </c>
       <c r="E20">
-        <v>0.3402777451822772</v>
+        <v>0.1469024002280932</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007157183176087013</v>
+        <v>0.0007290730057777086</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.42433137561829</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.487942807756298</v>
+        <v>2.132091092323833</v>
       </c>
       <c r="L20">
-        <v>0.9560205005170417</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2.151751846653198</v>
+      </c>
+      <c r="N20">
+        <v>5.019383900451771</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.665382605097761</v>
+        <v>8.400368376269853</v>
       </c>
       <c r="C21">
-        <v>3.015794636820715</v>
+        <v>2.449064073625209</v>
       </c>
       <c r="D21">
-        <v>0.3784814410807371</v>
+        <v>0.3689704629769039</v>
       </c>
       <c r="E21">
-        <v>0.3990994429679091</v>
+        <v>0.1708777347299915</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006927143325818896</v>
+        <v>0.0007092488817670126</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.60939897638821</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.752737750071375</v>
+        <v>2.471806708029604</v>
       </c>
       <c r="L21">
-        <v>1.118864182218445</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2.49618966750208</v>
+      </c>
+      <c r="N21">
+        <v>5.517062555653979</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.192482437446074</v>
+        <v>9.196007739226047</v>
       </c>
       <c r="C22">
-        <v>3.320943418526895</v>
+        <v>2.687098342138313</v>
       </c>
       <c r="D22">
-        <v>0.416515234096309</v>
+        <v>0.4042231721546727</v>
       </c>
       <c r="E22">
-        <v>0.4408481148950543</v>
+        <v>0.1875745750080711</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006770526116173237</v>
+        <v>0.0006959979787182972</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.13917923175978</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.941911319664882</v>
+        <v>2.707686349157626</v>
       </c>
       <c r="L22">
-        <v>1.234136283350708</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2.735480747594693</v>
+      </c>
+      <c r="N22">
+        <v>5.860809372081462</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.905827218316915</v>
+        <v>8.766482067552886</v>
       </c>
       <c r="C23">
-        <v>3.155620969350707</v>
+        <v>2.558515307200423</v>
       </c>
       <c r="D23">
-        <v>0.3959194036704901</v>
+        <v>0.3851948262394558</v>
       </c>
       <c r="E23">
-        <v>0.4182050605315908</v>
+        <v>0.1785541741317047</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006854839251387145</v>
+        <v>0.0007031047776363651</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.31165574149566</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.839187936549337</v>
+        <v>2.580325365579981</v>
       </c>
       <c r="L23">
-        <v>1.171648594332623</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2.606264181372623</v>
+      </c>
+      <c r="N23">
+        <v>5.675398713025174</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.922311437109101</v>
+        <v>7.235401458571459</v>
       </c>
       <c r="C24">
-        <v>2.576665868733983</v>
+        <v>2.101656064435815</v>
       </c>
       <c r="D24">
-        <v>0.3236143758739018</v>
+        <v>0.3173105753582206</v>
       </c>
       <c r="E24">
-        <v>0.3393608715498004</v>
+        <v>0.1465249057597227</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007160866009556109</v>
+        <v>0.0007293935559045148</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.38999720719843</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.483832416992271</v>
+        <v>2.126732748454543</v>
       </c>
       <c r="L24">
-        <v>0.9534782745701023</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2.146320803967853</v>
+      </c>
+      <c r="N24">
+        <v>5.011510722248232</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.006169062515653</v>
+        <v>5.728614786263222</v>
       </c>
       <c r="C25">
-        <v>2.019278865490264</v>
+        <v>1.654083221778535</v>
       </c>
       <c r="D25">
-        <v>0.2537698258245058</v>
+        <v>0.2504024514177416</v>
       </c>
       <c r="E25">
-        <v>0.2640871133374887</v>
+        <v>0.1151859719016777</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007475378280384753</v>
+        <v>0.0007570954681279662</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.54208889719689</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.148330216267837</v>
+        <v>1.680879902457335</v>
       </c>
       <c r="L25">
-        <v>0.7443633189902386</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>1.694608914391154</v>
+      </c>
+      <c r="N25">
+        <v>4.354132441144458</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.700124558085065</v>
+        <v>1.366567962788366</v>
       </c>
       <c r="C2">
-        <v>1.349559886715781</v>
+        <v>0.1334144100871839</v>
       </c>
       <c r="D2">
-        <v>0.204656674534931</v>
+        <v>0.1940194900246439</v>
       </c>
       <c r="E2">
-        <v>0.09389164409440198</v>
+        <v>0.04373569583468395</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007774306453041113</v>
+        <v>1.078177116608998</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.7131600540351002</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.7492953296981284</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.376812121881756</v>
+        <v>1.306896076083234</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2834443826801589</v>
       </c>
       <c r="M2">
-        <v>1.386754137319201</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>3.903605022782273</v>
+        <v>1.170015182345274</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.037850476724486</v>
+        <v>1.190125995951149</v>
       </c>
       <c r="C3">
-        <v>1.153803030508698</v>
+        <v>0.1167662537763192</v>
       </c>
       <c r="D3">
-        <v>0.1751553511095949</v>
+        <v>0.1680668680618282</v>
       </c>
       <c r="E3">
-        <v>0.08021758013464364</v>
+        <v>0.04060909241418464</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007913557214651768</v>
+        <v>1.015973253816057</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.6919063177162741</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.7259164475736597</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.181101741654459</v>
+        <v>1.1330805469224</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2505411397237083</v>
       </c>
       <c r="M3">
-        <v>1.188690479554865</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3.612961038656493</v>
+        <v>1.211056694376033</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.644267034090319</v>
+        <v>1.082887180185594</v>
       </c>
       <c r="C4">
-        <v>1.037560759443522</v>
+        <v>0.1066100899753195</v>
       </c>
       <c r="D4">
-        <v>0.1576018315987255</v>
+        <v>0.1523184370255137</v>
       </c>
       <c r="E4">
-        <v>0.07210393373742718</v>
+        <v>0.03874420670271483</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008000240744377287</v>
+        <v>0.9797575011941859</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.679980575656046</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.7128270001299484</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.064816983061121</v>
+        <v>1.027348637540939</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.230671154645421</v>
       </c>
       <c r="M4">
-        <v>1.07103647911029</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>3.440124602050901</v>
+        <v>1.237760366112298</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.486644501397905</v>
+        <v>1.039429941782231</v>
       </c>
       <c r="C5">
-        <v>0.9910227583966957</v>
+        <v>0.1024841296252106</v>
       </c>
       <c r="D5">
-        <v>0.1505667377524986</v>
+        <v>0.1459419142997973</v>
       </c>
       <c r="E5">
-        <v>0.06885699879563134</v>
+        <v>0.03799722745693401</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008035922659203951</v>
+        <v>0.9654640793076226</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.6753885907359773</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.7077938140525148</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.018250856076193</v>
+        <v>0.9844782131337411</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2226498785214375</v>
       </c>
       <c r="M5">
-        <v>1.023927696155397</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>3.370899122836988</v>
+        <v>1.249008198877036</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.460624635450529</v>
+        <v>1.032227692689844</v>
       </c>
       <c r="C6">
-        <v>0.98334105643832</v>
+        <v>0.1017996811191182</v>
       </c>
       <c r="D6">
-        <v>0.1494050891872973</v>
+        <v>0.1448854154522792</v>
       </c>
       <c r="E6">
-        <v>0.06832112972906401</v>
+        <v>0.03787395283473671</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008041870829825989</v>
+        <v>0.9631178263724394</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.6746418564532348</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.7069757431026602</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.010564013399986</v>
+        <v>0.9773717389107333</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2213223178286654</v>
       </c>
       <c r="M6">
-        <v>1.016151572619407</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3.359471633696188</v>
+        <v>1.250897644618952</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.642130715649273</v>
+        <v>1.082300156425703</v>
       </c>
       <c r="C7">
-        <v>1.036929962906413</v>
+        <v>0.1065543990203537</v>
       </c>
       <c r="D7">
-        <v>0.1575065036005299</v>
+        <v>0.152232282089102</v>
       </c>
       <c r="E7">
-        <v>0.07205991788178423</v>
+        <v>0.03873408118493593</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008000720441196929</v>
+        <v>0.9795628947234434</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.6799175809499189</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.7127579247119087</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.064185842578212</v>
+        <v>1.026769638992107</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2305626795078126</v>
       </c>
       <c r="M7">
-        <v>1.070397962666526</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>3.439186370455957</v>
+        <v>1.237910592651779</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.468728378366279</v>
+        <v>1.30548281852856</v>
       </c>
       <c r="C8">
-        <v>1.281137238379301</v>
+        <v>0.1276580808430907</v>
       </c>
       <c r="D8">
-        <v>0.1943535542678347</v>
+        <v>0.185028678354513</v>
       </c>
       <c r="E8">
-        <v>0.0891107677430476</v>
+        <v>0.04264574833046275</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007822113454217996</v>
+        <v>1.056298552053903</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.7055892365918481</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.7409609362116285</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.308424906085307</v>
+        <v>1.246738048857964</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2720254559418862</v>
       </c>
       <c r="M8">
-        <v>1.317537395252856</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>3.802091309034097</v>
+        <v>1.18384648189047</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.22115028806769</v>
+        <v>1.753439387935515</v>
       </c>
       <c r="C9">
-        <v>1.800182762391103</v>
+        <v>0.1697517598847469</v>
       </c>
       <c r="D9">
-        <v>0.2722860588759772</v>
+        <v>0.2511065112428668</v>
       </c>
       <c r="E9">
-        <v>0.1254108501159834</v>
+        <v>0.05079155330327012</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007478019157975836</v>
+        <v>1.22404773607208</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.7655707754450702</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.8071451976464417</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.826565701326317</v>
+        <v>1.687585877046075</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3563523717070751</v>
       </c>
       <c r="M9">
-        <v>1.842168316854298</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>4.569404567794152</v>
+        <v>1.090354621855312</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.637055456956602</v>
+        <v>2.091241708827056</v>
       </c>
       <c r="C10">
-        <v>2.221290737569802</v>
+        <v>0.2013950089513088</v>
       </c>
       <c r="D10">
-        <v>0.335127896350258</v>
+        <v>0.3011576252446702</v>
       </c>
       <c r="E10">
-        <v>0.154908744393051</v>
+        <v>0.05712562292350043</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007223387679826584</v>
+        <v>1.360201436222383</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.8166011534313782</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.8636649865913668</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.245668068173416</v>
+        <v>2.019726287932826</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4207190339156597</v>
       </c>
       <c r="M10">
-        <v>2.266882738082273</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>5.186100332273384</v>
+        <v>1.030192858116116</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.323572892198058</v>
+        <v>2.247392392655286</v>
       </c>
       <c r="C11">
-        <v>2.426122716438101</v>
+        <v>0.2160162475260705</v>
       </c>
       <c r="D11">
-        <v>0.3655666376515967</v>
+        <v>0.3243578896371133</v>
       </c>
       <c r="E11">
-        <v>0.1692689538681194</v>
+        <v>0.06009747263863119</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007105482622538073</v>
+        <v>1.42552582096323</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.841593448112917</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.8913997787453596</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.449048519259804</v>
+        <v>2.173219579059833</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4506639476164338</v>
       </c>
       <c r="M11">
-        <v>2.473108118403943</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>5.483816150666541</v>
+        <v>1.004893376520798</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.591260094531378</v>
+        <v>2.306932977789074</v>
       </c>
       <c r="C12">
-        <v>2.506115144336491</v>
+        <v>0.2215919596363563</v>
       </c>
       <c r="D12">
-        <v>0.3774304580222889</v>
+        <v>0.3332147566972878</v>
       </c>
       <c r="E12">
-        <v>0.1748788325379493</v>
+        <v>0.06123714549393711</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007060350776270914</v>
+        <v>1.450802839209615</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.8513374555719508</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.9022214730533946</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.528383861365654</v>
+        <v>2.231743493950148</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4621114424119384</v>
       </c>
       <c r="M12">
-        <v>2.553575095221575</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>5.599652759159937</v>
+        <v>0.9956308583114932</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.533234973810067</v>
+        <v>2.294090735366581</v>
       </c>
       <c r="C13">
-        <v>2.488769548918469</v>
+        <v>0.2203892888110772</v>
       </c>
       <c r="D13">
-        <v>0.3748590254612907</v>
+        <v>0.3313039374035895</v>
       </c>
       <c r="E13">
-        <v>0.1736623022110209</v>
+        <v>0.0609910389301298</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007070095756396737</v>
+        <v>1.445334064657658</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.8492260476034801</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.8998761588503328</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.511185146021816</v>
+        <v>2.219120646847472</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.4596410051630357</v>
       </c>
       <c r="M13">
-        <v>2.536130010949236</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>5.574555639616278</v>
+        <v>0.997611225665743</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.345430131677347</v>
+        <v>2.252282302441643</v>
       </c>
       <c r="C14">
-        <v>2.432651605957403</v>
+        <v>0.2164741449590082</v>
       </c>
       <c r="D14">
-        <v>0.3665354439320083</v>
+        <v>0.3250850613957113</v>
       </c>
       <c r="E14">
-        <v>0.1697267891419969</v>
+        <v>0.06019093987806912</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007101780541629456</v>
+        <v>1.427594231466884</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.8423893356822134</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.8922835199820582</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.455525710565695</v>
+        <v>2.17802604603807</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4516034997917728</v>
       </c>
       <c r="M14">
-        <v>2.479677237902507</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>5.493279804341398</v>
+        <v>1.004124849783338</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.231454926183915</v>
+        <v>2.22672843122092</v>
       </c>
       <c r="C15">
-        <v>2.398611680618046</v>
+        <v>0.2140812810596628</v>
       </c>
       <c r="D15">
-        <v>0.3614833784045572</v>
+        <v>0.3212854139191563</v>
       </c>
       <c r="E15">
-        <v>0.1673398288319561</v>
+        <v>0.05970275827231575</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007121119007638121</v>
+        <v>1.416800062187264</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.8382388697755232</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.887675247893327</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.421751585536541</v>
+        <v>2.152908111113248</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4466947508624486</v>
       </c>
       <c r="M15">
-        <v>2.445424671169619</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>5.44392097175961</v>
+        <v>1.008156663685469</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.593172209173247</v>
+        <v>2.081091251745363</v>
       </c>
       <c r="C16">
-        <v>2.208212712884517</v>
+        <v>0.2004445676826805</v>
       </c>
       <c r="D16">
-        <v>0.333181568949783</v>
+        <v>0.2996509019036608</v>
       </c>
       <c r="E16">
-        <v>0.153992125040908</v>
+        <v>0.05693333360417796</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007231036573994409</v>
+        <v>1.356004918673506</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.8150056556787888</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.8618955216978321</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.232671717116872</v>
+        <v>2.009747966383003</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4187764721529845</v>
       </c>
       <c r="M16">
-        <v>2.253707317646843</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>5.167039597189159</v>
+        <v>1.031889562963606</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.213493792316967</v>
+        <v>1.992419486848064</v>
       </c>
       <c r="C17">
-        <v>2.095134945783514</v>
+        <v>0.1921412679336498</v>
       </c>
       <c r="D17">
-        <v>0.3163385563358929</v>
+        <v>0.2864958108340403</v>
       </c>
       <c r="E17">
-        <v>0.1460679923403312</v>
+        <v>0.05525843332838676</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000729781920525828</v>
+        <v>1.319612884721096</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.801224875740246</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.8466180395949863</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.120246701069092</v>
+        <v>1.922575766031088</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4018281818487281</v>
       </c>
       <c r="M17">
-        <v>2.139746831291887</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>5.001979647394336</v>
+        <v>1.046992641764184</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.998987248616459</v>
+        <v>1.941648096796513</v>
       </c>
       <c r="C18">
-        <v>2.031306535210035</v>
+        <v>0.1873863377858243</v>
       </c>
       <c r="D18">
-        <v>0.3068200186264392</v>
+        <v>0.278969384403112</v>
       </c>
       <c r="E18">
-        <v>0.1415961871617313</v>
+        <v>0.05430350516378368</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007336049312715095</v>
+        <v>1.298996543590874</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7934643437198474</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.8380194856776626</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.056745239712058</v>
+        <v>1.872659096483943</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3921416808736495</v>
       </c>
       <c r="M18">
-        <v>2.07538878544932</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>4.908612814120943</v>
+        <v>1.055872893661785</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.926981805998025</v>
+        <v>1.924495794093673</v>
       </c>
       <c r="C19">
-        <v>2.009889670172868</v>
+        <v>0.1857798064594789</v>
       </c>
       <c r="D19">
-        <v>0.3036243776679726</v>
+        <v>0.2764276699555808</v>
       </c>
       <c r="E19">
-        <v>0.1400959093768215</v>
+        <v>0.05398159315450712</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007348967098212977</v>
+        <v>1.29206883598232</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.7908645350153449</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.8351397470461421</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.035431504898725</v>
+        <v>1.855794810559445</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3888722331690957</v>
       </c>
       <c r="M19">
-        <v>2.053789267786215</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>4.877253681423099</v>
+        <v>1.058912212265973</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.253499834708805</v>
+        <v>2.001834549258547</v>
       </c>
       <c r="C20">
-        <v>2.107043618264754</v>
+        <v>0.1930229601326374</v>
       </c>
       <c r="D20">
-        <v>0.3181135646305222</v>
+        <v>0.2878919842537186</v>
       </c>
       <c r="E20">
-        <v>0.1469024002280932</v>
+        <v>0.05543584781484867</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007290730057777086</v>
+        <v>1.323453868005572</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.8026745340788466</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.8482246332990684</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.132091092323833</v>
+        <v>1.931831993993541</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.403625882749111</v>
       </c>
       <c r="M20">
-        <v>2.151751846653198</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>5.019383900451771</v>
+        <v>1.045364739230443</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.400368376269853</v>
+        <v>2.264550889630812</v>
       </c>
       <c r="C21">
-        <v>2.449064073625209</v>
+        <v>0.217623006065665</v>
       </c>
       <c r="D21">
-        <v>0.3689704629769039</v>
+        <v>0.3269096788706207</v>
       </c>
       <c r="E21">
-        <v>0.1708777347299915</v>
+        <v>0.06042554949603485</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007092488817670126</v>
+        <v>1.432789746219356</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.8443896411531284</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.8945047640965171</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.471806708029604</v>
+        <v>2.190085232947524</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4539612736262342</v>
       </c>
       <c r="M21">
-        <v>2.49618966750208</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>5.517062555653979</v>
+        <v>1.00220284213205</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.196007739226047</v>
+        <v>2.438667276312401</v>
       </c>
       <c r="C22">
-        <v>2.687098342138313</v>
+        <v>0.2339311121424146</v>
       </c>
       <c r="D22">
-        <v>0.4042231721546727</v>
+        <v>0.3528312934409144</v>
       </c>
       <c r="E22">
-        <v>0.1875745750080711</v>
+        <v>0.06377062589388416</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006959979787182972</v>
+        <v>1.507423300356606</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.8732976405800343</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.9266265820676551</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.707686349157626</v>
+        <v>2.361225051773857</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4874945180239507</v>
       </c>
       <c r="M22">
-        <v>2.735480747594693</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>5.860809372081462</v>
+        <v>0.9758575746850227</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.766482067552886</v>
+        <v>2.345498336628737</v>
       </c>
       <c r="C23">
-        <v>2.558515307200423</v>
+        <v>0.2252037961379756</v>
       </c>
       <c r="D23">
-        <v>0.3851948262394558</v>
+        <v>0.3389545850908604</v>
       </c>
       <c r="E23">
-        <v>0.1785541741317047</v>
+        <v>0.06197715262796777</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007031047776363651</v>
+        <v>1.467280545167142</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.8577097970259047</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.9093010199856622</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.580325365579981</v>
+        <v>2.269649712104354</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4695345632100043</v>
       </c>
       <c r="M23">
-        <v>2.606264181372623</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>5.675398713025174</v>
+        <v>0.98974077763868</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.235401458571459</v>
+        <v>1.99757735812193</v>
       </c>
       <c r="C24">
-        <v>2.101656064435815</v>
+        <v>0.1926242891704106</v>
       </c>
       <c r="D24">
-        <v>0.3173105753582206</v>
+        <v>0.2872606609130059</v>
       </c>
       <c r="E24">
-        <v>0.1465249057597227</v>
+        <v>0.05535561392133559</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007293935559045148</v>
+        <v>1.321716410525056</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.8020186400650857</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.8474977191629094</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.126732748454543</v>
+        <v>1.927646635059517</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4028129646361691</v>
       </c>
       <c r="M24">
-        <v>2.146320803967853</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>5.011510722248232</v>
+        <v>1.046100100970087</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.728614786263222</v>
+        <v>1.630915534972104</v>
       </c>
       <c r="C25">
-        <v>1.654083221778535</v>
+        <v>0.1582604598597754</v>
       </c>
       <c r="D25">
-        <v>0.2504024514177416</v>
+        <v>0.232999621309375</v>
       </c>
       <c r="E25">
-        <v>0.1151859719016777</v>
+        <v>0.0485311385510947</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007570954681279662</v>
+        <v>1.17658409237238</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.7482054717174265</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.7879517817609525</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.680879902457335</v>
+        <v>1.567066420089645</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3331602323274865</v>
       </c>
       <c r="M25">
-        <v>1.694608914391154</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>4.354132441144458</v>
+        <v>1.114218181871152</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.366567962788366</v>
+        <v>0.8521272959555688</v>
       </c>
       <c r="C2">
-        <v>0.1334144100871839</v>
+        <v>0.04841290214839944</v>
       </c>
       <c r="D2">
-        <v>0.1940194900246439</v>
+        <v>0.07758153008460056</v>
       </c>
       <c r="E2">
-        <v>0.04373569583468395</v>
+        <v>0.06955353243393247</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.078177116608998</v>
+        <v>1.4727967649996</v>
       </c>
       <c r="H2">
-        <v>0.7131600540351002</v>
+        <v>1.338123636665202</v>
       </c>
       <c r="I2">
-        <v>0.7492953296981284</v>
+        <v>1.291858295027353</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.306896076083234</v>
+        <v>0.6317458505050411</v>
       </c>
       <c r="L2">
-        <v>0.2834443826801589</v>
+        <v>0.2339524660021084</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.170015182345274</v>
+        <v>2.280027468995655</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.190125995951149</v>
+        <v>0.8082002511848998</v>
       </c>
       <c r="C3">
-        <v>0.1167662537763192</v>
+        <v>0.043290728730355</v>
       </c>
       <c r="D3">
-        <v>0.1680668680618282</v>
+        <v>0.07050867933646998</v>
       </c>
       <c r="E3">
-        <v>0.04060909241418464</v>
+        <v>0.06913241108798118</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.015973253816057</v>
+        <v>1.465085432766955</v>
       </c>
       <c r="H3">
-        <v>0.6919063177162741</v>
+        <v>1.339706944032599</v>
       </c>
       <c r="I3">
-        <v>0.7259164475736597</v>
+        <v>1.29272454619926</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.1330805469224</v>
+        <v>0.5863677974402322</v>
       </c>
       <c r="L3">
-        <v>0.2505411397237083</v>
+        <v>0.2264942255563085</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.211056694376033</v>
+        <v>2.297769912496562</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.082887180185594</v>
+        <v>0.7816718013819184</v>
       </c>
       <c r="C4">
-        <v>0.1066100899753195</v>
+        <v>0.0401251948017034</v>
       </c>
       <c r="D4">
-        <v>0.1523184370255137</v>
+        <v>0.06620255808185505</v>
       </c>
       <c r="E4">
-        <v>0.03874420670271483</v>
+        <v>0.06890477234951398</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.9797575011941859</v>
+        <v>1.461144629844185</v>
       </c>
       <c r="H4">
-        <v>0.679980575656046</v>
+        <v>1.34123595468759</v>
       </c>
       <c r="I4">
-        <v>0.7128270001299484</v>
+        <v>1.293836636706871</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.027348637540939</v>
+        <v>0.5588119837284751</v>
       </c>
       <c r="L4">
-        <v>0.230671154645421</v>
+        <v>0.2220486068125638</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.237760366112298</v>
+        <v>2.309342281414736</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.039429941782231</v>
+        <v>0.7709728964556462</v>
       </c>
       <c r="C5">
-        <v>0.1024841296252106</v>
+        <v>0.03883000810346005</v>
       </c>
       <c r="D5">
-        <v>0.1459419142997973</v>
+        <v>0.06445695025364273</v>
       </c>
       <c r="E5">
-        <v>0.03799722745693401</v>
+        <v>0.06881979723076981</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.9654640793076226</v>
+        <v>1.459738156722054</v>
       </c>
       <c r="H5">
-        <v>0.6753885907359773</v>
+        <v>1.341999086471134</v>
       </c>
       <c r="I5">
-        <v>0.7077938140525148</v>
+        <v>1.294435675269952</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9844782131337411</v>
+        <v>0.5476599543034979</v>
       </c>
       <c r="L5">
-        <v>0.2226498785214375</v>
+        <v>0.2202706265379106</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.249008198877036</v>
+        <v>2.31422861629693</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.032227692689844</v>
+        <v>0.7692031032493674</v>
       </c>
       <c r="C6">
-        <v>0.1017996811191182</v>
+        <v>0.03861462741920718</v>
       </c>
       <c r="D6">
-        <v>0.1448854154522792</v>
+        <v>0.06416764614533577</v>
       </c>
       <c r="E6">
-        <v>0.03787395283473671</v>
+        <v>0.06880615798644563</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.9631178263724394</v>
+        <v>1.459516652066924</v>
       </c>
       <c r="H6">
-        <v>0.6746418564532348</v>
+        <v>1.342134263150442</v>
       </c>
       <c r="I6">
-        <v>0.7069757431026602</v>
+        <v>1.294543953023741</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9773717389107333</v>
+        <v>0.5458128338917732</v>
       </c>
       <c r="L6">
-        <v>0.2213223178286654</v>
+        <v>0.2199774266201757</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.250897644618952</v>
+        <v>2.315050283483281</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.082300156425703</v>
+        <v>0.7815270597616006</v>
       </c>
       <c r="C7">
-        <v>0.1065543990203537</v>
+        <v>0.04010774860563515</v>
       </c>
       <c r="D7">
-        <v>0.152232282089102</v>
+        <v>0.06617897912306603</v>
       </c>
       <c r="E7">
-        <v>0.03873408118493593</v>
+        <v>0.06890359479031538</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.9795628947234434</v>
+        <v>1.461124854439291</v>
       </c>
       <c r="H7">
-        <v>0.6799175809499189</v>
+        <v>1.341245679477609</v>
       </c>
       <c r="I7">
-        <v>0.7127579247119087</v>
+        <v>1.293844125062726</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.026769638992107</v>
+        <v>0.5586612708677308</v>
       </c>
       <c r="L7">
-        <v>0.2305626795078126</v>
+        <v>0.2220244921084031</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.237910592651779</v>
+        <v>2.309407490022537</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.30548281852856</v>
+        <v>0.8368894683886481</v>
       </c>
       <c r="C8">
-        <v>0.1276580808430907</v>
+        <v>0.0466509989896764</v>
       </c>
       <c r="D8">
-        <v>0.185028678354513</v>
+        <v>0.07513517989465868</v>
       </c>
       <c r="E8">
-        <v>0.04264574833046275</v>
+        <v>0.06940191658232919</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.056298552053903</v>
+        <v>1.469972967684029</v>
       </c>
       <c r="H8">
-        <v>0.7055892365918481</v>
+        <v>1.338553996375836</v>
       </c>
       <c r="I8">
-        <v>0.7409609362116285</v>
+        <v>1.292036525452289</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.246738048857964</v>
+        <v>0.6160359396183992</v>
       </c>
       <c r="L8">
-        <v>0.2720254559418862</v>
+        <v>0.2313531020340065</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.18384648189047</v>
+        <v>2.286004195974591</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.753439387935515</v>
+        <v>0.9489640445728185</v>
       </c>
       <c r="C9">
-        <v>0.1697517598847469</v>
+        <v>0.05932251597779725</v>
       </c>
       <c r="D9">
-        <v>0.2511065112428668</v>
+        <v>0.09299177029112116</v>
       </c>
       <c r="E9">
-        <v>0.05079155330327012</v>
+        <v>0.07062417327765402</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.22404773607208</v>
+        <v>1.493636740984982</v>
       </c>
       <c r="H9">
-        <v>0.7655707754450702</v>
+        <v>1.337694300101987</v>
       </c>
       <c r="I9">
-        <v>0.8071451976464417</v>
+        <v>1.29309896681081</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.687585877046075</v>
+        <v>0.7309807267947122</v>
       </c>
       <c r="L9">
-        <v>0.3563523717070751</v>
+        <v>0.2507088375137414</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.090354621855312</v>
+        <v>2.245497481070004</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.091241708827056</v>
+        <v>1.033447014211788</v>
       </c>
       <c r="C10">
-        <v>0.2013950089513088</v>
+        <v>0.06853964864181705</v>
       </c>
       <c r="D10">
-        <v>0.3011576252446702</v>
+        <v>0.1062951751219998</v>
       </c>
       <c r="E10">
-        <v>0.05712562292350043</v>
+        <v>0.07167123660953578</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.360201436222383</v>
+        <v>1.514892652673836</v>
       </c>
       <c r="H10">
-        <v>0.8166011534313782</v>
+        <v>1.33975873913343</v>
       </c>
       <c r="I10">
-        <v>0.8636649865913668</v>
+        <v>1.296694950087925</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.019726287932826</v>
+        <v>0.81692548940606</v>
       </c>
       <c r="L10">
-        <v>0.4207190339156597</v>
+        <v>0.2655803128647136</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.030192858116116</v>
+        <v>2.219026195927441</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.247392392655286</v>
+        <v>1.072346778152848</v>
       </c>
       <c r="C11">
-        <v>0.2160162475260705</v>
+        <v>0.07271372020235845</v>
       </c>
       <c r="D11">
-        <v>0.3243578896371133</v>
+        <v>0.1123884335528942</v>
       </c>
       <c r="E11">
-        <v>0.06009747263863119</v>
+        <v>0.07217988874623771</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.42552582096323</v>
+        <v>1.525407873127563</v>
       </c>
       <c r="H11">
-        <v>0.841593448112917</v>
+        <v>1.34128399217866</v>
       </c>
       <c r="I11">
-        <v>0.8913997787453596</v>
+        <v>1.298943820878428</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.173219579059833</v>
+        <v>0.8563516518578353</v>
       </c>
       <c r="L11">
-        <v>0.4506639476164338</v>
+        <v>0.2724878531262505</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.004893376520798</v>
+        <v>2.207698999510569</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.306932977789074</v>
+        <v>1.087144294766233</v>
       </c>
       <c r="C12">
-        <v>0.2215919596363563</v>
+        <v>0.07429169016843673</v>
       </c>
       <c r="D12">
-        <v>0.3332147566972878</v>
+        <v>0.1147018221444966</v>
       </c>
       <c r="E12">
-        <v>0.06123714549393711</v>
+        <v>0.07237714401248496</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.450802839209615</v>
+        <v>1.52951166710622</v>
       </c>
       <c r="H12">
-        <v>0.8513374555719508</v>
+        <v>1.341945877463445</v>
       </c>
       <c r="I12">
-        <v>0.9022214730533946</v>
+        <v>1.299883665557253</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.231743493950148</v>
+        <v>0.8713287309225848</v>
       </c>
       <c r="L12">
-        <v>0.4621114424119384</v>
+        <v>0.2751240660321059</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9956308583114932</v>
+        <v>2.203512587990097</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.294090735366581</v>
+        <v>1.083954408536897</v>
       </c>
       <c r="C13">
-        <v>0.2203892888110772</v>
+        <v>0.07395196362514866</v>
       </c>
       <c r="D13">
-        <v>0.3313039374035895</v>
+        <v>0.1142033248580674</v>
       </c>
       <c r="E13">
-        <v>0.0609910389301298</v>
+        <v>0.07233445537260508</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.445334064657658</v>
+        <v>1.528622415209213</v>
       </c>
       <c r="H13">
-        <v>0.8492260476034801</v>
+        <v>1.341799578787146</v>
       </c>
       <c r="I13">
-        <v>0.8998761588503328</v>
+        <v>1.299677326938493</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.219120646847472</v>
+        <v>0.8681010496769375</v>
       </c>
       <c r="L13">
-        <v>0.4596410051630357</v>
+        <v>0.2745553997431927</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.997611225665743</v>
+        <v>2.204409624964086</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.252282302441643</v>
+        <v>1.073562837176496</v>
       </c>
       <c r="C14">
-        <v>0.2164741449590082</v>
+        <v>0.0728435937707701</v>
       </c>
       <c r="D14">
-        <v>0.3250850613957113</v>
+        <v>0.1125786368690598</v>
       </c>
       <c r="E14">
-        <v>0.06019093987806912</v>
+        <v>0.07219602412767046</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.427594231466884</v>
+        <v>1.525743049875388</v>
       </c>
       <c r="H14">
-        <v>0.8423893356822134</v>
+        <v>1.341336756157347</v>
       </c>
       <c r="I14">
-        <v>0.8922835199820582</v>
+        <v>1.299019373350376</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.17802604603807</v>
+        <v>0.8575828789965954</v>
       </c>
       <c r="L14">
-        <v>0.4516034997917728</v>
+        <v>0.2727043255753472</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.004124849783338</v>
+        <v>2.20735251658693</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.22672843122092</v>
+        <v>1.067206419326908</v>
       </c>
       <c r="C15">
-        <v>0.2140812810596628</v>
+        <v>0.07216434026312868</v>
       </c>
       <c r="D15">
-        <v>0.3212854139191563</v>
+        <v>0.1115842516334737</v>
       </c>
       <c r="E15">
-        <v>0.05970275827231575</v>
+        <v>0.07211183491706308</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.416800062187264</v>
+        <v>1.52399523996263</v>
       </c>
       <c r="H15">
-        <v>0.8382388697755232</v>
+        <v>1.341064243578472</v>
       </c>
       <c r="I15">
-        <v>0.887675247893327</v>
+        <v>1.298627852782161</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.152908111113248</v>
+        <v>0.8511463449161454</v>
       </c>
       <c r="L15">
-        <v>0.4466947508624486</v>
+        <v>0.2715731558323711</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.008156663685469</v>
+        <v>2.209168535331663</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.081091251745363</v>
+        <v>1.030914217016687</v>
       </c>
       <c r="C16">
-        <v>0.2004445676826805</v>
+        <v>0.06826648824555548</v>
       </c>
       <c r="D16">
-        <v>0.2996509019036608</v>
+        <v>0.1058978043243428</v>
       </c>
       <c r="E16">
-        <v>0.05693333360417796</v>
+        <v>0.07163864482515336</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.356004918673506</v>
+        <v>1.514222502095862</v>
       </c>
       <c r="H16">
-        <v>0.8150056556787888</v>
+        <v>1.339670856375449</v>
       </c>
       <c r="I16">
-        <v>0.8618955216978321</v>
+        <v>1.296560324821996</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.009747966383003</v>
+        <v>0.8143555154678381</v>
       </c>
       <c r="L16">
-        <v>0.4187764721529845</v>
+        <v>0.2651317545875287</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.031889562963606</v>
+        <v>2.219780851841762</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.992419486848064</v>
+        <v>1.008769799873903</v>
       </c>
       <c r="C17">
-        <v>0.1921412679336498</v>
+        <v>0.06587049033086601</v>
       </c>
       <c r="D17">
-        <v>0.2864958108340403</v>
+        <v>0.1024200038496161</v>
       </c>
       <c r="E17">
-        <v>0.05525843332838676</v>
+        <v>0.07135663309519913</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.319612884721096</v>
+        <v>1.50844407430597</v>
       </c>
       <c r="H17">
-        <v>0.801224875740246</v>
+        <v>1.338966194106177</v>
       </c>
       <c r="I17">
-        <v>0.8466180395949863</v>
+        <v>1.295449042309286</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.922575766031088</v>
+        <v>0.7918698233063139</v>
       </c>
       <c r="L17">
-        <v>0.4018281818487281</v>
+        <v>0.2612166406322558</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.046992641764184</v>
+        <v>2.226474345938755</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.941648096796513</v>
+        <v>0.9960769874765276</v>
       </c>
       <c r="C18">
-        <v>0.1873863377858243</v>
+        <v>0.06449059861421347</v>
       </c>
       <c r="D18">
-        <v>0.278969384403112</v>
+        <v>0.1004235662353778</v>
       </c>
       <c r="E18">
-        <v>0.05430350516378368</v>
+        <v>0.07119747180926339</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.298996543590874</v>
+        <v>1.505200069038125</v>
       </c>
       <c r="H18">
-        <v>0.7934643437198474</v>
+        <v>1.338616058910503</v>
       </c>
       <c r="I18">
-        <v>0.8380194856776626</v>
+        <v>1.294867558607528</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.872659096483943</v>
+        <v>0.7789676657024813</v>
       </c>
       <c r="L18">
-        <v>0.3921416808736495</v>
+        <v>0.2589781771993813</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.055872893661785</v>
+        <v>2.230391529148683</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.924495794093673</v>
+        <v>0.991786997130248</v>
       </c>
       <c r="C19">
-        <v>0.1857798064594789</v>
+        <v>0.06402308424902969</v>
       </c>
       <c r="D19">
-        <v>0.2764276699555808</v>
+        <v>0.09974827557773835</v>
       </c>
       <c r="E19">
-        <v>0.05398159315450712</v>
+        <v>0.0711441057292852</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.29206883598232</v>
+        <v>1.504115366280843</v>
       </c>
       <c r="H19">
-        <v>0.7908645350153449</v>
+        <v>1.338506983711028</v>
       </c>
       <c r="I19">
-        <v>0.8351397470461421</v>
+        <v>1.294680584907127</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.855794810559445</v>
+        <v>0.7746045481216015</v>
       </c>
       <c r="L19">
-        <v>0.3888722331690957</v>
+        <v>0.2582225746645577</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.058912212265973</v>
+        <v>2.231729367191505</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.001834549258547</v>
+        <v>1.011122551793733</v>
       </c>
       <c r="C20">
-        <v>0.1930229601326374</v>
+        <v>0.06612573195975813</v>
       </c>
       <c r="D20">
-        <v>0.2878919842537186</v>
+        <v>0.1027898175954647</v>
       </c>
       <c r="E20">
-        <v>0.05543584781484867</v>
+        <v>0.07138633871673861</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.323453868005572</v>
+        <v>1.509050958125016</v>
       </c>
       <c r="H20">
-        <v>0.8026745340788466</v>
+        <v>1.339035496789421</v>
       </c>
       <c r="I20">
-        <v>0.8482246332990684</v>
+        <v>1.295561368184103</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.931831993993541</v>
+        <v>0.7942602543374164</v>
       </c>
       <c r="L20">
-        <v>0.403625882749111</v>
+        <v>0.2616320236998888</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.045364739230443</v>
+        <v>2.225754849385901</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.264550889630812</v>
+        <v>1.076613276912951</v>
       </c>
       <c r="C21">
-        <v>0.217623006065665</v>
+        <v>0.07316922066611653</v>
       </c>
       <c r="D21">
-        <v>0.3269096788706207</v>
+        <v>0.1130556838520249</v>
       </c>
       <c r="E21">
-        <v>0.06042554949603485</v>
+        <v>0.07223655890113889</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.432789746219356</v>
+        <v>1.526585478447515</v>
       </c>
       <c r="H21">
-        <v>0.8443896411531284</v>
+        <v>1.341470410194376</v>
       </c>
       <c r="I21">
-        <v>0.8945047640965171</v>
+        <v>1.299210234553627</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.190085232947524</v>
+        <v>0.8606710394358856</v>
       </c>
       <c r="L21">
-        <v>0.4539612736262342</v>
+        <v>0.2732474752122442</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.00220284213205</v>
+        <v>2.206485322477064</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.438667276312401</v>
+        <v>1.119805767426669</v>
       </c>
       <c r="C22">
-        <v>0.2339311121424146</v>
+        <v>0.07775706448613562</v>
       </c>
       <c r="D22">
-        <v>0.3528312934409144</v>
+        <v>0.1198000345678025</v>
       </c>
       <c r="E22">
-        <v>0.06377062589388416</v>
+        <v>0.07281926613005751</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.507423300356606</v>
+        <v>1.53875600861312</v>
       </c>
       <c r="H22">
-        <v>0.8732976405800343</v>
+        <v>1.343553172179213</v>
       </c>
       <c r="I22">
-        <v>0.9266265820676551</v>
+        <v>1.302109389456582</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.361225051773857</v>
+        <v>0.9043496599726666</v>
       </c>
       <c r="L22">
-        <v>0.4874945180239507</v>
+        <v>0.2809582000467827</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9758575746850227</v>
+        <v>2.194491739447379</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.345498336628737</v>
+        <v>1.096717482974441</v>
       </c>
       <c r="C23">
-        <v>0.2252037961379756</v>
+        <v>0.07530984605170943</v>
       </c>
       <c r="D23">
-        <v>0.3389545850908604</v>
+        <v>0.1161972306751125</v>
       </c>
       <c r="E23">
-        <v>0.06197715262796777</v>
+        <v>0.07250579364336573</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.467280545167142</v>
+        <v>1.532195243612875</v>
       </c>
       <c r="H23">
-        <v>0.8577097970259047</v>
+        <v>1.342396592036636</v>
       </c>
       <c r="I23">
-        <v>0.9093010199856622</v>
+        <v>1.300514956611906</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.269649712104354</v>
+        <v>0.8810124071508483</v>
       </c>
       <c r="L23">
-        <v>0.4695345632100043</v>
+        <v>0.2768319213101336</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.98974077763868</v>
+        <v>2.200837966192225</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.99757735812193</v>
+        <v>1.010058753304691</v>
       </c>
       <c r="C24">
-        <v>0.1926242891704106</v>
+        <v>0.06601034470257616</v>
       </c>
       <c r="D24">
-        <v>0.2872606609130059</v>
+        <v>0.1026226154740044</v>
       </c>
       <c r="E24">
-        <v>0.05535561392133559</v>
+        <v>0.07137289955048232</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.321716410525056</v>
+        <v>1.508776342720239</v>
       </c>
       <c r="H24">
-        <v>0.8020186400650857</v>
+        <v>1.339003993764209</v>
       </c>
       <c r="I24">
-        <v>0.8474977191629094</v>
+        <v>1.295510406834694</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.927646635059517</v>
+        <v>0.7931794620710377</v>
       </c>
       <c r="L24">
-        <v>0.4028129646361691</v>
+        <v>0.2614441904304385</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.046100100970087</v>
+        <v>2.226079918829555</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.630915534972104</v>
+        <v>0.918268978362903</v>
       </c>
       <c r="C25">
-        <v>0.1582604598597754</v>
+        <v>0.05591114712187562</v>
       </c>
       <c r="D25">
-        <v>0.232999621309375</v>
+        <v>0.0881291257603749</v>
       </c>
       <c r="E25">
-        <v>0.0485311385510947</v>
+        <v>0.07026731931833652</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.17658409237238</v>
+        <v>1.486557009185404</v>
       </c>
       <c r="H25">
-        <v>0.7482054717174265</v>
+        <v>1.33745358925475</v>
       </c>
       <c r="I25">
-        <v>0.7879517817609525</v>
+        <v>1.292317629538601</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.567066420089645</v>
+        <v>0.6996234449854342</v>
       </c>
       <c r="L25">
-        <v>0.3331602323274865</v>
+        <v>0.2453585385739103</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.114218181871152</v>
+        <v>2.255878405946405</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8521272959555688</v>
+        <v>1.366567962788338</v>
       </c>
       <c r="C2">
-        <v>0.04841290214839944</v>
+        <v>0.1334144100871697</v>
       </c>
       <c r="D2">
-        <v>0.07758153008460056</v>
+        <v>0.1940194900246297</v>
       </c>
       <c r="E2">
-        <v>0.06955353243393247</v>
+        <v>0.04373569583465908</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.4727967649996</v>
+        <v>1.078177116608984</v>
       </c>
       <c r="H2">
-        <v>1.338123636665202</v>
+        <v>0.7131600540351286</v>
       </c>
       <c r="I2">
-        <v>1.291858295027353</v>
+        <v>0.7492953296981284</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6317458505050411</v>
+        <v>1.306896076083291</v>
       </c>
       <c r="L2">
-        <v>0.2339524660021084</v>
+        <v>0.2834443826801305</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.280027468995655</v>
+        <v>1.170015182345203</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8082002511848998</v>
+        <v>1.190125995951178</v>
       </c>
       <c r="C3">
-        <v>0.043290728730355</v>
+        <v>0.1167662537764471</v>
       </c>
       <c r="D3">
-        <v>0.07050867933646998</v>
+        <v>0.1680668680615298</v>
       </c>
       <c r="E3">
-        <v>0.06913241108798118</v>
+        <v>0.04060909241414556</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.465085432766955</v>
+        <v>1.015973253816099</v>
       </c>
       <c r="H3">
-        <v>1.339706944032599</v>
+        <v>0.6919063177163878</v>
       </c>
       <c r="I3">
-        <v>1.29272454619926</v>
+        <v>0.725916447573681</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5863677974402322</v>
+        <v>1.133080546922344</v>
       </c>
       <c r="L3">
-        <v>0.2264942255563085</v>
+        <v>0.2505411397237651</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.297769912496562</v>
+        <v>1.211056694375984</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7816718013819184</v>
+        <v>1.082887180185708</v>
       </c>
       <c r="C4">
-        <v>0.0401251948017034</v>
+        <v>0.1066100899753053</v>
       </c>
       <c r="D4">
-        <v>0.06620255808185505</v>
+        <v>0.1523184370254569</v>
       </c>
       <c r="E4">
-        <v>0.06890477234951398</v>
+        <v>0.03874420670271306</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.461144629844185</v>
+        <v>0.9797575011942854</v>
       </c>
       <c r="H4">
-        <v>1.34123595468759</v>
+        <v>0.6799805756560318</v>
       </c>
       <c r="I4">
-        <v>1.293836636706871</v>
+        <v>0.7128270001299626</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5588119837284751</v>
+        <v>1.027348637540769</v>
       </c>
       <c r="L4">
-        <v>0.2220486068125638</v>
+        <v>0.2306711546454636</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.309342281414736</v>
+        <v>1.237760366112283</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7709728964556462</v>
+        <v>1.039429941782288</v>
       </c>
       <c r="C5">
-        <v>0.03883000810346005</v>
+        <v>0.1024841296252106</v>
       </c>
       <c r="D5">
-        <v>0.06445695025364273</v>
+        <v>0.1459419142996694</v>
       </c>
       <c r="E5">
-        <v>0.06881979723076981</v>
+        <v>0.03799722745693046</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.459738156722054</v>
+        <v>0.9654640793075515</v>
       </c>
       <c r="H5">
-        <v>1.341999086471134</v>
+        <v>0.6753885907358637</v>
       </c>
       <c r="I5">
-        <v>1.294435675269952</v>
+        <v>0.7077938140525148</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5476599543034979</v>
+        <v>0.9844782131336274</v>
       </c>
       <c r="L5">
-        <v>0.2202706265379106</v>
+        <v>0.2226498785214375</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.31422861629693</v>
+        <v>1.249008198877007</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7692031032493674</v>
+        <v>1.032227692689816</v>
       </c>
       <c r="C6">
-        <v>0.03861462741920718</v>
+        <v>0.1017996811190187</v>
       </c>
       <c r="D6">
-        <v>0.06416764614533577</v>
+        <v>0.144885415452336</v>
       </c>
       <c r="E6">
-        <v>0.06880615798644563</v>
+        <v>0.03787395283475981</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.459516652066924</v>
+        <v>0.9631178263723967</v>
       </c>
       <c r="H6">
-        <v>1.342134263150442</v>
+        <v>0.6746418564533343</v>
       </c>
       <c r="I6">
-        <v>1.294543953023741</v>
+        <v>0.7069757431026673</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5458128338917732</v>
+        <v>0.9773717389107333</v>
       </c>
       <c r="L6">
-        <v>0.2199774266201757</v>
+        <v>0.2213223178286938</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.315050283483281</v>
+        <v>1.250897644618988</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7815270597616006</v>
+        <v>1.082300156425504</v>
       </c>
       <c r="C7">
-        <v>0.04010774860563515</v>
+        <v>0.1065543990204816</v>
       </c>
       <c r="D7">
-        <v>0.06617897912306603</v>
+        <v>0.1522322820891731</v>
       </c>
       <c r="E7">
-        <v>0.06890359479031538</v>
+        <v>0.03873408118491284</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.461124854439291</v>
+        <v>0.979562894723486</v>
       </c>
       <c r="H7">
-        <v>1.341245679477609</v>
+        <v>0.6799175809499189</v>
       </c>
       <c r="I7">
-        <v>1.293844125062726</v>
+        <v>0.7127579247119016</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5586612708677308</v>
+        <v>1.026769638991993</v>
       </c>
       <c r="L7">
-        <v>0.2220244921084031</v>
+        <v>0.2305626795077984</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.309407490022537</v>
+        <v>1.237910592651772</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8368894683886481</v>
+        <v>1.30548281852856</v>
       </c>
       <c r="C8">
-        <v>0.0466509989896764</v>
+        <v>0.1276580808430765</v>
       </c>
       <c r="D8">
-        <v>0.07513517989465868</v>
+        <v>0.1850286783546977</v>
       </c>
       <c r="E8">
-        <v>0.06940191658232919</v>
+        <v>0.04264574833045387</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.469972967684029</v>
+        <v>1.056298552053917</v>
       </c>
       <c r="H8">
-        <v>1.338553996375836</v>
+        <v>0.7055892365919476</v>
       </c>
       <c r="I8">
-        <v>1.292036525452289</v>
+        <v>0.7409609362116214</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6160359396183992</v>
+        <v>1.246738048857935</v>
       </c>
       <c r="L8">
-        <v>0.2313531020340065</v>
+        <v>0.2720254559418152</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.286004195974591</v>
+        <v>1.183846481890441</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9489640445728185</v>
+        <v>1.753439387935373</v>
       </c>
       <c r="C9">
-        <v>0.05932251597779725</v>
+        <v>0.1697517598846048</v>
       </c>
       <c r="D9">
-        <v>0.09299177029112116</v>
+        <v>0.2511065112429947</v>
       </c>
       <c r="E9">
-        <v>0.07062417327765402</v>
+        <v>0.05079155330329854</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.493636740984982</v>
+        <v>1.224047736072151</v>
       </c>
       <c r="H9">
-        <v>1.337694300101987</v>
+        <v>0.7655707754449566</v>
       </c>
       <c r="I9">
-        <v>1.29309896681081</v>
+        <v>0.807145197646463</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7309807267947122</v>
+        <v>1.687585877046104</v>
       </c>
       <c r="L9">
-        <v>0.2507088375137414</v>
+        <v>0.3563523717071746</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.245497481070004</v>
+        <v>1.090354621855354</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.033447014211788</v>
+        <v>2.091241708826999</v>
       </c>
       <c r="C10">
-        <v>0.06853964864181705</v>
+        <v>0.2013950089511951</v>
       </c>
       <c r="D10">
-        <v>0.1062951751219998</v>
+        <v>0.3011576252447554</v>
       </c>
       <c r="E10">
-        <v>0.07167123660953578</v>
+        <v>0.05712562292353951</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.514892652673836</v>
+        <v>1.360201436222383</v>
       </c>
       <c r="H10">
-        <v>1.33975873913343</v>
+        <v>0.8166011534313782</v>
       </c>
       <c r="I10">
-        <v>1.296694950087925</v>
+        <v>0.8636649865913668</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.81692548940606</v>
+        <v>2.019726287932855</v>
       </c>
       <c r="L10">
-        <v>0.2655803128647136</v>
+        <v>0.4207190339156313</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.219026195927441</v>
+        <v>1.030192858116088</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.072346778152848</v>
+        <v>2.247392392655286</v>
       </c>
       <c r="C11">
-        <v>0.07271372020235845</v>
+        <v>0.2160162475260421</v>
       </c>
       <c r="D11">
-        <v>0.1123884335528942</v>
+        <v>0.3243578896371275</v>
       </c>
       <c r="E11">
-        <v>0.07217988874623771</v>
+        <v>0.0600974726386454</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.525407873127563</v>
+        <v>1.425525820963344</v>
       </c>
       <c r="H11">
-        <v>1.34128399217866</v>
+        <v>0.8415934481130023</v>
       </c>
       <c r="I11">
-        <v>1.298943820878428</v>
+        <v>0.8913997787453525</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8563516518578353</v>
+        <v>2.173219579059804</v>
       </c>
       <c r="L11">
-        <v>0.2724878531262505</v>
+        <v>0.4506639476164764</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.207698999510569</v>
+        <v>1.004893376520776</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.087144294766233</v>
+        <v>2.306932977789018</v>
       </c>
       <c r="C12">
-        <v>0.07429169016843673</v>
+        <v>0.2215919596361431</v>
       </c>
       <c r="D12">
-        <v>0.1147018221444966</v>
+        <v>0.3332147566970747</v>
       </c>
       <c r="E12">
-        <v>0.07237714401248496</v>
+        <v>0.06123714549396198</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.52951166710622</v>
+        <v>1.450802839209729</v>
       </c>
       <c r="H12">
-        <v>1.341945877463445</v>
+        <v>0.8513374555719224</v>
       </c>
       <c r="I12">
-        <v>1.299883665557253</v>
+        <v>0.9022214730533946</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8713287309225848</v>
+        <v>2.231743493950148</v>
       </c>
       <c r="L12">
-        <v>0.2751240660321059</v>
+        <v>0.4621114424119668</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.203512587990097</v>
+        <v>0.9956308583114151</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.083954408536897</v>
+        <v>2.294090735366751</v>
       </c>
       <c r="C13">
-        <v>0.07395196362514866</v>
+        <v>0.2203892888110062</v>
       </c>
       <c r="D13">
-        <v>0.1142033248580674</v>
+        <v>0.3313039374038169</v>
       </c>
       <c r="E13">
-        <v>0.07233445537260508</v>
+        <v>0.06099103893011915</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.528622415209213</v>
+        <v>1.445334064657601</v>
       </c>
       <c r="H13">
-        <v>1.341799578787146</v>
+        <v>0.849226047603338</v>
       </c>
       <c r="I13">
-        <v>1.299677326938493</v>
+        <v>0.8998761588503399</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8681010496769375</v>
+        <v>2.2191206468475</v>
       </c>
       <c r="L13">
-        <v>0.2745553997431927</v>
+        <v>0.4596410051630784</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.204409624964086</v>
+        <v>0.9976112256657501</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.073562837176496</v>
+        <v>2.252282302441586</v>
       </c>
       <c r="C14">
-        <v>0.0728435937707701</v>
+        <v>0.2164741449591787</v>
       </c>
       <c r="D14">
-        <v>0.1125786368690598</v>
+        <v>0.3250850613955123</v>
       </c>
       <c r="E14">
-        <v>0.07219602412767046</v>
+        <v>0.06019093987808688</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.525743049875388</v>
+        <v>1.427594231466855</v>
       </c>
       <c r="H14">
-        <v>1.341336756157347</v>
+        <v>0.8423893356822418</v>
       </c>
       <c r="I14">
-        <v>1.299019373350376</v>
+        <v>0.8922835199820724</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8575828789965954</v>
+        <v>2.17802604603807</v>
       </c>
       <c r="L14">
-        <v>0.2727043255753472</v>
+        <v>0.4516034997919007</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.20735251658693</v>
+        <v>1.004124849783302</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.067206419326908</v>
+        <v>2.226728431220806</v>
       </c>
       <c r="C15">
-        <v>0.07216434026312868</v>
+        <v>0.2140812810596486</v>
       </c>
       <c r="D15">
-        <v>0.1115842516334737</v>
+        <v>0.3212854139191279</v>
       </c>
       <c r="E15">
-        <v>0.07211183491706308</v>
+        <v>0.05970275827232996</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.52399523996263</v>
+        <v>1.416800062187264</v>
       </c>
       <c r="H15">
-        <v>1.341064243578472</v>
+        <v>0.8382388697755232</v>
       </c>
       <c r="I15">
-        <v>1.298627852782161</v>
+        <v>0.8876752478933199</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8511463449161454</v>
+        <v>2.152908111113248</v>
       </c>
       <c r="L15">
-        <v>0.2715731558323711</v>
+        <v>0.4466947508622923</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.209168535331663</v>
+        <v>1.008156663685455</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.030914217016687</v>
+        <v>2.081091251745249</v>
       </c>
       <c r="C16">
-        <v>0.06826648824555548</v>
+        <v>0.2004445676826805</v>
       </c>
       <c r="D16">
-        <v>0.1058978043243428</v>
+        <v>0.2996509019036608</v>
       </c>
       <c r="E16">
-        <v>0.07163864482515336</v>
+        <v>0.05693333360418507</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.514222502095862</v>
+        <v>1.356004918673534</v>
       </c>
       <c r="H16">
-        <v>1.339670856375449</v>
+        <v>0.8150056556789025</v>
       </c>
       <c r="I16">
-        <v>1.296560324821996</v>
+        <v>0.8618955216978392</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8143555154678381</v>
+        <v>2.00974796638306</v>
       </c>
       <c r="L16">
-        <v>0.2651317545875287</v>
+        <v>0.4187764721530272</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.219780851841762</v>
+        <v>1.031889562963627</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.008769799873903</v>
+        <v>1.99241948684795</v>
       </c>
       <c r="C17">
-        <v>0.06587049033086601</v>
+        <v>0.1921412679336356</v>
       </c>
       <c r="D17">
-        <v>0.1024200038496161</v>
+        <v>0.2864958108338271</v>
       </c>
       <c r="E17">
-        <v>0.07135663309519913</v>
+        <v>0.05525843332837965</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.50844407430597</v>
+        <v>1.319612884721067</v>
       </c>
       <c r="H17">
-        <v>1.338966194106177</v>
+        <v>0.8012248757402745</v>
       </c>
       <c r="I17">
-        <v>1.295449042309286</v>
+        <v>0.8466180395949934</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7918698233063139</v>
+        <v>1.922575766031144</v>
       </c>
       <c r="L17">
-        <v>0.2612166406322558</v>
+        <v>0.4018281818486571</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.226474345938755</v>
+        <v>1.046992641764248</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9960769874765276</v>
+        <v>1.941648096796428</v>
       </c>
       <c r="C18">
-        <v>0.06449059861421347</v>
+        <v>0.1873863377858243</v>
       </c>
       <c r="D18">
-        <v>0.1004235662353778</v>
+        <v>0.2789693844030978</v>
       </c>
       <c r="E18">
-        <v>0.07119747180926339</v>
+        <v>0.05430350516378368</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.505200069038125</v>
+        <v>1.298996543590846</v>
       </c>
       <c r="H18">
-        <v>1.338616058910503</v>
+        <v>0.7934643437198474</v>
       </c>
       <c r="I18">
-        <v>1.294867558607528</v>
+        <v>0.8380194856776555</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7789676657024813</v>
+        <v>1.872659096483943</v>
       </c>
       <c r="L18">
-        <v>0.2589781771993813</v>
+        <v>0.3921416808736353</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.230391529148683</v>
+        <v>1.055872893661778</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.991786997130248</v>
+        <v>1.924495794093644</v>
       </c>
       <c r="C19">
-        <v>0.06402308424902969</v>
+        <v>0.185779806459891</v>
       </c>
       <c r="D19">
-        <v>0.09974827557773835</v>
+        <v>0.2764276699555097</v>
       </c>
       <c r="E19">
-        <v>0.0711441057292852</v>
+        <v>0.05398159315450712</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.504115366280843</v>
+        <v>1.29206883598232</v>
       </c>
       <c r="H19">
-        <v>1.338506983711028</v>
+        <v>0.7908645350153165</v>
       </c>
       <c r="I19">
-        <v>1.294680584907127</v>
+        <v>0.8351397470461421</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7746045481216015</v>
+        <v>1.855794810559416</v>
       </c>
       <c r="L19">
-        <v>0.2582225746645577</v>
+        <v>0.388872233169181</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.231729367191505</v>
+        <v>1.058912212265966</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.011122551793733</v>
+        <v>2.00183454925849</v>
       </c>
       <c r="C20">
-        <v>0.06612573195975813</v>
+        <v>0.1930229601323532</v>
       </c>
       <c r="D20">
-        <v>0.1027898175954647</v>
+        <v>0.2878919842538323</v>
       </c>
       <c r="E20">
-        <v>0.07138633871673861</v>
+        <v>0.05543584781485222</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.509050958125016</v>
+        <v>1.3234538680056</v>
       </c>
       <c r="H20">
-        <v>1.339035496789421</v>
+        <v>0.8026745340787329</v>
       </c>
       <c r="I20">
-        <v>1.295561368184103</v>
+        <v>0.8482246332990755</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7942602543374164</v>
+        <v>1.931831993993427</v>
       </c>
       <c r="L20">
-        <v>0.2616320236998888</v>
+        <v>0.40362588274904</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.225754849385901</v>
+        <v>1.0453647392305</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.076613276912951</v>
+        <v>2.264550889630698</v>
       </c>
       <c r="C21">
-        <v>0.07316922066611653</v>
+        <v>0.2176230060657787</v>
       </c>
       <c r="D21">
-        <v>0.1130556838520249</v>
+        <v>0.326909678870507</v>
       </c>
       <c r="E21">
-        <v>0.07223655890113889</v>
+        <v>0.06042554949606327</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.526585478447515</v>
+        <v>1.432789746219328</v>
       </c>
       <c r="H21">
-        <v>1.341470410194376</v>
+        <v>0.8443896411531</v>
       </c>
       <c r="I21">
-        <v>1.299210234553627</v>
+        <v>0.89450476409651</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8606710394358856</v>
+        <v>2.190085232947609</v>
       </c>
       <c r="L21">
-        <v>0.2732474752122442</v>
+        <v>0.4539612736261347</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.206485322477064</v>
+        <v>1.002202842132007</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.119805767426669</v>
+        <v>2.438667276312515</v>
       </c>
       <c r="C22">
-        <v>0.07775706448613562</v>
+        <v>0.2339311121425709</v>
       </c>
       <c r="D22">
-        <v>0.1198000345678025</v>
+        <v>0.3528312934409428</v>
       </c>
       <c r="E22">
-        <v>0.07281926613005751</v>
+        <v>0.06377062589388416</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.53875600861312</v>
+        <v>1.507423300356493</v>
       </c>
       <c r="H22">
-        <v>1.343553172179213</v>
+        <v>0.873297640580148</v>
       </c>
       <c r="I22">
-        <v>1.302109389456582</v>
+        <v>0.9266265820676622</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9043496599726666</v>
+        <v>2.361225051773914</v>
       </c>
       <c r="L22">
-        <v>0.2809582000467827</v>
+        <v>0.4874945180240076</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.194491739447379</v>
+        <v>0.9758575746850227</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.096717482974441</v>
+        <v>2.345498336628566</v>
       </c>
       <c r="C23">
-        <v>0.07530984605170943</v>
+        <v>0.2252037961379614</v>
       </c>
       <c r="D23">
-        <v>0.1161972306751125</v>
+        <v>0.338954585090633</v>
       </c>
       <c r="E23">
-        <v>0.07250579364336573</v>
+        <v>0.06197715262798553</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.532195243612875</v>
+        <v>1.467280545167114</v>
       </c>
       <c r="H23">
-        <v>1.342396592036636</v>
+        <v>0.8577097970260184</v>
       </c>
       <c r="I23">
-        <v>1.300514956611906</v>
+        <v>0.9093010199856622</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8810124071508483</v>
+        <v>2.269649712104382</v>
       </c>
       <c r="L23">
-        <v>0.2768319213101336</v>
+        <v>0.4695345632099048</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.200837966192225</v>
+        <v>0.9897407776387439</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.010058753304691</v>
+        <v>1.997577358121987</v>
       </c>
       <c r="C24">
-        <v>0.06601034470257616</v>
+        <v>0.1926242891702543</v>
       </c>
       <c r="D24">
-        <v>0.1026226154740044</v>
+        <v>0.2872606609128923</v>
       </c>
       <c r="E24">
-        <v>0.07137289955048232</v>
+        <v>0.05535561392131427</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.508776342720239</v>
+        <v>1.32171641052517</v>
       </c>
       <c r="H24">
-        <v>1.339003993764209</v>
+        <v>0.8020186400650857</v>
       </c>
       <c r="I24">
-        <v>1.295510406834694</v>
+        <v>0.8474977191629236</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7931794620710377</v>
+        <v>1.92764663505946</v>
       </c>
       <c r="L24">
-        <v>0.2614441904304385</v>
+        <v>0.4028129646361549</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.226079918829555</v>
+        <v>1.046100100970094</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.918268978362903</v>
+        <v>1.630915534972075</v>
       </c>
       <c r="C25">
-        <v>0.05591114712187562</v>
+        <v>0.158260459860017</v>
       </c>
       <c r="D25">
-        <v>0.0881291257603749</v>
+        <v>0.2329996213091619</v>
       </c>
       <c r="E25">
-        <v>0.07026731931833652</v>
+        <v>0.04853113855106628</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.486557009185404</v>
+        <v>1.17658409237238</v>
       </c>
       <c r="H25">
-        <v>1.33745358925475</v>
+        <v>0.7482054717174123</v>
       </c>
       <c r="I25">
-        <v>1.292317629538601</v>
+        <v>0.7879517817609454</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6996234449854342</v>
+        <v>1.567066420089589</v>
       </c>
       <c r="L25">
-        <v>0.2453585385739103</v>
+        <v>0.3331602323275717</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.255878405946405</v>
+        <v>1.114218181871138</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.366567962788338</v>
+        <v>0.944168398984857</v>
       </c>
       <c r="C2">
-        <v>0.1334144100871697</v>
+        <v>0.2583208841479063</v>
       </c>
       <c r="D2">
-        <v>0.1940194900246297</v>
+        <v>0.1945858207633364</v>
       </c>
       <c r="E2">
-        <v>0.04373569583465908</v>
+        <v>0.3135674784480997</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.078177116608984</v>
+        <v>1.022767046682986</v>
       </c>
       <c r="H2">
-        <v>0.7131600540351286</v>
+        <v>4.669395394163445E-05</v>
       </c>
       <c r="I2">
-        <v>0.7492953296981284</v>
+        <v>0.001183296720460358</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6796945922417024</v>
       </c>
       <c r="K2">
-        <v>1.306896076083291</v>
+        <v>0.6403809038336163</v>
       </c>
       <c r="L2">
-        <v>0.2834443826801305</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.172306154285508</v>
       </c>
       <c r="N2">
-        <v>1.170015182345203</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.6547138600480338</v>
+      </c>
+      <c r="P2">
+        <v>1.191982805089218</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.190125995951178</v>
+        <v>0.8204330365331032</v>
       </c>
       <c r="C3">
-        <v>0.1167662537764471</v>
+        <v>0.2234981568064001</v>
       </c>
       <c r="D3">
-        <v>0.1680668680615298</v>
+        <v>0.1688603663807129</v>
       </c>
       <c r="E3">
-        <v>0.04060909241414556</v>
+        <v>0.2728559997758069</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.015973253816099</v>
+        <v>0.9497059151574661</v>
       </c>
       <c r="H3">
-        <v>0.6919063177163878</v>
+        <v>0.0004808958513009554</v>
       </c>
       <c r="I3">
-        <v>0.725916447573681</v>
+        <v>0.0022676707213658</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6497441956093013</v>
       </c>
       <c r="K3">
-        <v>1.133080546922344</v>
+        <v>0.6116734427817789</v>
       </c>
       <c r="L3">
-        <v>0.2505411397237651</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.017751548824492</v>
       </c>
       <c r="N3">
-        <v>1.211056694375984</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5697289960326657</v>
+      </c>
+      <c r="P3">
+        <v>1.207309975734503</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.082887180185708</v>
+        <v>0.7442676460364623</v>
       </c>
       <c r="C4">
-        <v>0.1066100899753053</v>
+        <v>0.202456605116268</v>
       </c>
       <c r="D4">
-        <v>0.1523184370254569</v>
+        <v>0.1532039178086109</v>
       </c>
       <c r="E4">
-        <v>0.03874420670271306</v>
+        <v>0.2479409050192913</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.9797575011942854</v>
+        <v>0.905288150891721</v>
       </c>
       <c r="H4">
-        <v>0.6799805756560318</v>
+        <v>0.000993611917794901</v>
       </c>
       <c r="I4">
-        <v>0.7128270001299626</v>
+        <v>0.003242123229601823</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.6316516206430691</v>
       </c>
       <c r="K4">
-        <v>1.027348637540769</v>
+        <v>0.5941817227039152</v>
       </c>
       <c r="L4">
-        <v>0.2306711546454636</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9230605594578662</v>
       </c>
       <c r="N4">
-        <v>1.237760366112283</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5176179233719154</v>
+      </c>
+      <c r="P4">
+        <v>1.216996022140357</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.039429941782288</v>
+        <v>0.7123414874641298</v>
       </c>
       <c r="C5">
-        <v>0.1024841296252106</v>
+        <v>0.1943288278465189</v>
       </c>
       <c r="D5">
-        <v>0.1459419142996694</v>
+        <v>0.1468533131528176</v>
       </c>
       <c r="E5">
-        <v>0.03799722745693046</v>
+        <v>0.2378204903030223</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.9654640793075515</v>
+        <v>0.8861614677020668</v>
       </c>
       <c r="H5">
-        <v>0.6753885907358637</v>
+        <v>0.001262328630980525</v>
       </c>
       <c r="I5">
-        <v>0.7077938140525148</v>
+        <v>0.00379018978685508</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6237760583971976</v>
       </c>
       <c r="K5">
-        <v>0.9844782131336274</v>
+        <v>0.5862990072415997</v>
       </c>
       <c r="L5">
-        <v>0.2226498785214375</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8842254850476365</v>
       </c>
       <c r="N5">
-        <v>1.249008198877007</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4963321295646281</v>
+      </c>
+      <c r="P5">
+        <v>1.220156493055057</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.032227692689816</v>
+        <v>0.7060174254747835</v>
       </c>
       <c r="C6">
-        <v>0.1017996811190187</v>
+        <v>0.1934370959094451</v>
       </c>
       <c r="D6">
-        <v>0.144885415452336</v>
+        <v>0.1457989808833133</v>
       </c>
       <c r="E6">
-        <v>0.03787395283475981</v>
+        <v>0.2361617621622543</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.9631178263723967</v>
+        <v>0.8816163417713483</v>
       </c>
       <c r="H6">
-        <v>0.6746418564533343</v>
+        <v>0.001311839972945927</v>
       </c>
       <c r="I6">
-        <v>0.7069757431026673</v>
+        <v>0.003987360734166501</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6217733978410251</v>
       </c>
       <c r="K6">
-        <v>0.9773717389107333</v>
+        <v>0.5840335520723912</v>
       </c>
       <c r="L6">
-        <v>0.2213223178286938</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8774306715098703</v>
       </c>
       <c r="N6">
-        <v>1.250897644618988</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4927242874555233</v>
+      </c>
+      <c r="P6">
+        <v>1.219645891449836</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.082300156425504</v>
+        <v>0.741042328943621</v>
       </c>
       <c r="C7">
-        <v>0.1065543990204816</v>
+        <v>0.2035874824135817</v>
       </c>
       <c r="D7">
-        <v>0.1522322820891731</v>
+        <v>0.1531136664149813</v>
       </c>
       <c r="E7">
-        <v>0.03873408118491284</v>
+        <v>0.2478614387913254</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.979562894723486</v>
+        <v>0.9012709372330932</v>
       </c>
       <c r="H7">
-        <v>0.6799175809499189</v>
+        <v>0.001000335659034013</v>
       </c>
       <c r="I7">
-        <v>0.7127579247119016</v>
+        <v>0.003509929208046714</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6296358571451321</v>
       </c>
       <c r="K7">
-        <v>1.026769638991993</v>
+        <v>0.5914562493808262</v>
       </c>
       <c r="L7">
-        <v>0.2305626795077984</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9215813986627381</v>
       </c>
       <c r="N7">
-        <v>1.237910592651772</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5171282903501364</v>
+      </c>
+      <c r="P7">
+        <v>1.21421175885478</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.30548281852856</v>
+        <v>0.8977961816809454</v>
       </c>
       <c r="C8">
-        <v>0.1276580808430765</v>
+        <v>0.2478930192662574</v>
       </c>
       <c r="D8">
-        <v>0.1850286783546977</v>
+        <v>0.1856772332243253</v>
       </c>
       <c r="E8">
-        <v>0.04264574833045387</v>
+        <v>0.29958475437234</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.056298552053917</v>
+        <v>0.9924889009294731</v>
       </c>
       <c r="H8">
-        <v>0.7055892365919476</v>
+        <v>0.000144940417580397</v>
       </c>
       <c r="I8">
-        <v>0.7409609362116214</v>
+        <v>0.001797139210794718</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6667765782564032</v>
       </c>
       <c r="K8">
-        <v>1.246738048857935</v>
+        <v>0.626982823493023</v>
       </c>
       <c r="L8">
-        <v>0.2720254559418152</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.117678915091602</v>
       </c>
       <c r="N8">
-        <v>1.183846481890441</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6251189134196622</v>
+      </c>
+      <c r="P8">
+        <v>1.193526454920011</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.753439387935373</v>
+        <v>1.209105699701865</v>
       </c>
       <c r="C9">
-        <v>0.1697517598846048</v>
+        <v>0.3356350778531692</v>
       </c>
       <c r="D9">
-        <v>0.2511065112429947</v>
+        <v>0.2508488985832003</v>
       </c>
       <c r="E9">
-        <v>0.05079155330329854</v>
+        <v>0.4018043595412735</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.224047736072151</v>
+        <v>1.182254142096298</v>
       </c>
       <c r="H9">
-        <v>0.7655707754449566</v>
+        <v>0.0005743581698509637</v>
       </c>
       <c r="I9">
-        <v>0.807145197646463</v>
+        <v>0.0006923646979268838</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7456639527119222</v>
       </c>
       <c r="K9">
-        <v>1.687585877046104</v>
+        <v>0.7026357009628228</v>
       </c>
       <c r="L9">
-        <v>0.3563523717071746</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.506354843860095</v>
       </c>
       <c r="N9">
-        <v>1.090354621855354</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.8381786566581866</v>
+      </c>
+      <c r="P9">
+        <v>1.160302059439665</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.091241708826999</v>
+        <v>1.434413566901014</v>
       </c>
       <c r="C10">
-        <v>0.2013950089511951</v>
+        <v>0.4002153602144745</v>
       </c>
       <c r="D10">
-        <v>0.3011576252447554</v>
+        <v>0.2997655247466895</v>
       </c>
       <c r="E10">
-        <v>0.05712562292353951</v>
+        <v>0.4470161171559468</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.360201436222383</v>
+        <v>1.303967842517011</v>
       </c>
       <c r="H10">
-        <v>0.8166011534313782</v>
+        <v>0.002386353968659716</v>
       </c>
       <c r="I10">
-        <v>0.8636649865913668</v>
+        <v>0.001848127694831447</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7950762452770164</v>
       </c>
       <c r="K10">
-        <v>2.019726287932855</v>
+        <v>0.7478237249008828</v>
       </c>
       <c r="L10">
-        <v>0.4207190339156313</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.788624515189895</v>
       </c>
       <c r="N10">
-        <v>1.030192858116088</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.9615345525652117</v>
+      </c>
+      <c r="P10">
+        <v>1.123182064386519</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.247392392655286</v>
+        <v>1.516321638112402</v>
       </c>
       <c r="C11">
-        <v>0.2160162475260421</v>
+        <v>0.4061779938955397</v>
       </c>
       <c r="D11">
-        <v>0.3243578896371275</v>
+        <v>0.321820136240774</v>
       </c>
       <c r="E11">
-        <v>0.0600974726386454</v>
+        <v>0.2417222903975258</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.425525820963344</v>
+        <v>1.190296572635319</v>
       </c>
       <c r="H11">
-        <v>0.8415934481130023</v>
+        <v>0.02047167423890883</v>
       </c>
       <c r="I11">
-        <v>0.8913997787453525</v>
+        <v>0.002813889319805973</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7330303273479046</v>
       </c>
       <c r="K11">
-        <v>2.173219579059804</v>
+        <v>0.6781820712494309</v>
       </c>
       <c r="L11">
-        <v>0.4506639476164764</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.868977420969827</v>
       </c>
       <c r="N11">
-        <v>1.004893376520776</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7405157640060835</v>
+      </c>
+      <c r="P11">
+        <v>0.9990023576790534</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.306932977789018</v>
+        <v>1.542319890655421</v>
       </c>
       <c r="C12">
-        <v>0.2215919596361431</v>
+        <v>0.395438089290792</v>
       </c>
       <c r="D12">
-        <v>0.3332147566970747</v>
+        <v>0.3300300651855679</v>
       </c>
       <c r="E12">
-        <v>0.06123714549396198</v>
+        <v>0.1147958123990129</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.450802839209729</v>
+        <v>1.078307016603119</v>
       </c>
       <c r="H12">
-        <v>0.8513374555719224</v>
+        <v>0.05866664772397456</v>
       </c>
       <c r="I12">
-        <v>0.9022214730533946</v>
+        <v>0.002878133841832664</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6747505023341773</v>
       </c>
       <c r="K12">
-        <v>2.231743493950148</v>
+        <v>0.616403721703783</v>
       </c>
       <c r="L12">
-        <v>0.4621114424119668</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.877949427016517</v>
       </c>
       <c r="N12">
-        <v>0.9956308583114151</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5547359098596587</v>
+      </c>
+      <c r="P12">
+        <v>0.918094247857951</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.294090735366751</v>
+        <v>1.522016344117532</v>
       </c>
       <c r="C13">
-        <v>0.2203892888110062</v>
+        <v>0.3732386422315983</v>
       </c>
       <c r="D13">
-        <v>0.3313039374038169</v>
+        <v>0.3278953657276418</v>
       </c>
       <c r="E13">
-        <v>0.06099103893011915</v>
+        <v>0.04058946926324936</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.445334064657601</v>
+        <v>0.9553751886222983</v>
       </c>
       <c r="H13">
-        <v>0.849226047603338</v>
+        <v>0.1139179655150855</v>
       </c>
       <c r="I13">
-        <v>0.8998761588503399</v>
+        <v>0.002565239033248901</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6130119420348166</v>
       </c>
       <c r="K13">
-        <v>2.2191206468475</v>
+        <v>0.5530161192941776</v>
       </c>
       <c r="L13">
-        <v>0.4596410051630784</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.830775641391995</v>
       </c>
       <c r="N13">
-        <v>0.9976112256657501</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3861128689494606</v>
+      </c>
+      <c r="P13">
+        <v>0.8606863283158148</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.252282302441586</v>
+        <v>1.486060516122507</v>
       </c>
       <c r="C14">
-        <v>0.2164741449591787</v>
+        <v>0.3530669107138067</v>
       </c>
       <c r="D14">
-        <v>0.3250850613955123</v>
+        <v>0.3217266512460668</v>
       </c>
       <c r="E14">
-        <v>0.06019093987808688</v>
+        <v>0.01996490544897078</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.427594231466855</v>
+        <v>0.8646945292492347</v>
       </c>
       <c r="H14">
-        <v>0.8423893356822418</v>
+        <v>0.162950583721809</v>
       </c>
       <c r="I14">
-        <v>0.8922835199820724</v>
+        <v>0.002291974505252981</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5683110655539565</v>
       </c>
       <c r="K14">
-        <v>2.17802604603807</v>
+        <v>0.5079420761563256</v>
       </c>
       <c r="L14">
-        <v>0.4516034997919007</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.772311450636039</v>
       </c>
       <c r="N14">
-        <v>1.004124849783302</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2804298725820473</v>
+      </c>
+      <c r="P14">
+        <v>0.8321462082920021</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.226728431220806</v>
+        <v>1.466299172502517</v>
       </c>
       <c r="C15">
-        <v>0.2140812810596486</v>
+        <v>0.3462255833001961</v>
       </c>
       <c r="D15">
-        <v>0.3212854139191279</v>
+        <v>0.3180216375670568</v>
       </c>
       <c r="E15">
-        <v>0.05970275827232996</v>
+        <v>0.01894604381788589</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.416800062187264</v>
+        <v>0.8387974401142628</v>
       </c>
       <c r="H15">
-        <v>0.8382388697755232</v>
+        <v>0.1753515127105914</v>
       </c>
       <c r="I15">
-        <v>0.8876752478933199</v>
+        <v>0.002270566829297493</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.555969843160895</v>
       </c>
       <c r="K15">
-        <v>2.152908111113248</v>
+        <v>0.4956015318798705</v>
       </c>
       <c r="L15">
-        <v>0.4466947508622923</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.745882979727611</v>
       </c>
       <c r="N15">
-        <v>1.008156663685455</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2551828499403825</v>
+      </c>
+      <c r="P15">
+        <v>0.8281737966183229</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.081091251745249</v>
+        <v>1.371755500855016</v>
       </c>
       <c r="C16">
-        <v>0.2004445676826805</v>
+        <v>0.3240237541077988</v>
       </c>
       <c r="D16">
-        <v>0.2996509019036608</v>
+        <v>0.2971213212435373</v>
       </c>
       <c r="E16">
-        <v>0.05693333360418507</v>
+        <v>0.01768212850595452</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.356004918673534</v>
+        <v>0.8112019427823327</v>
       </c>
       <c r="H16">
-        <v>0.8150056556789025</v>
+        <v>0.1621909896993685</v>
       </c>
       <c r="I16">
-        <v>0.8618955216978392</v>
+        <v>0.001870314477816493</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5468549939449616</v>
       </c>
       <c r="K16">
-        <v>2.00974796638306</v>
+        <v>0.488399296335885</v>
       </c>
       <c r="L16">
-        <v>0.4187764721530272</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.633968931003693</v>
       </c>
       <c r="N16">
-        <v>1.031889562963627</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2424485652305002</v>
+      </c>
+      <c r="P16">
+        <v>0.8531021069094678</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.99241948684795</v>
+        <v>1.318363474712271</v>
       </c>
       <c r="C17">
-        <v>0.1921412679336356</v>
+        <v>0.3177494631933939</v>
       </c>
       <c r="D17">
-        <v>0.2864958108338271</v>
+        <v>0.284454793998691</v>
       </c>
       <c r="E17">
-        <v>0.05525843332837965</v>
+        <v>0.0222738160806264</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.319612884721067</v>
+        <v>0.8374666984675088</v>
       </c>
       <c r="H17">
-        <v>0.8012248757402745</v>
+        <v>0.1242310912777214</v>
       </c>
       <c r="I17">
-        <v>0.8466180395949934</v>
+        <v>0.00176266446963691</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5633282450376242</v>
       </c>
       <c r="K17">
-        <v>1.922575766031144</v>
+        <v>0.5063943257896568</v>
       </c>
       <c r="L17">
-        <v>0.4018281818486571</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.579261545024309</v>
       </c>
       <c r="N17">
-        <v>1.046992641764248</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2853818074307313</v>
+      </c>
+      <c r="P17">
+        <v>0.8866084259999312</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.941648096796428</v>
+        <v>1.296532074105869</v>
       </c>
       <c r="C18">
-        <v>0.1873863377858243</v>
+        <v>0.3234244802073931</v>
       </c>
       <c r="D18">
-        <v>0.2789693844030978</v>
+        <v>0.2773266298280959</v>
       </c>
       <c r="E18">
-        <v>0.05430350516378368</v>
+        <v>0.05934822404063667</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.298996543590846</v>
+        <v>0.9179045489039481</v>
       </c>
       <c r="H18">
-        <v>0.7934643437198474</v>
+        <v>0.07140610061495778</v>
       </c>
       <c r="I18">
-        <v>0.8380194856776555</v>
+        <v>0.001510139796117471</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6059821593890007</v>
       </c>
       <c r="K18">
-        <v>1.872659096483943</v>
+        <v>0.55130490727759</v>
       </c>
       <c r="L18">
-        <v>0.3921416808736353</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.567902428277847</v>
       </c>
       <c r="N18">
-        <v>1.055872893661778</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3946437052815241</v>
+      </c>
+      <c r="P18">
+        <v>0.938451845527787</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.924495794093644</v>
+        <v>1.296155280885756</v>
       </c>
       <c r="C19">
-        <v>0.185779806459891</v>
+        <v>0.3408426987206497</v>
       </c>
       <c r="D19">
-        <v>0.2764276699555097</v>
+        <v>0.2751195462652589</v>
       </c>
       <c r="E19">
-        <v>0.05398159315450712</v>
+        <v>0.1607192811431197</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.29206883598232</v>
+        <v>1.034356039975719</v>
       </c>
       <c r="H19">
-        <v>0.7908645350153165</v>
+        <v>0.02642255929532666</v>
       </c>
       <c r="I19">
-        <v>0.8351397470461421</v>
+        <v>0.001667030560476235</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6654426641323568</v>
       </c>
       <c r="K19">
-        <v>1.855794810559416</v>
+        <v>0.6130662201091042</v>
       </c>
       <c r="L19">
-        <v>0.388872233169181</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.590338254439757</v>
       </c>
       <c r="N19">
-        <v>1.058912212265966</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.570387292581394</v>
+      </c>
+      <c r="P19">
+        <v>1.00727307857386</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.00183454925849</v>
+        <v>1.366130029441905</v>
       </c>
       <c r="C20">
-        <v>0.1930229601323532</v>
+        <v>0.3869235081660918</v>
       </c>
       <c r="D20">
-        <v>0.2878919842538323</v>
+        <v>0.2868085167487493</v>
       </c>
       <c r="E20">
-        <v>0.05543584781485222</v>
+        <v>0.4339536597120386</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.3234538680056</v>
+        <v>1.259205063211681</v>
       </c>
       <c r="H20">
-        <v>0.8026745340787329</v>
+        <v>0.001775709750826859</v>
       </c>
       <c r="I20">
-        <v>0.8482246332990755</v>
+        <v>0.002148962295653867</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7756331240841803</v>
       </c>
       <c r="K20">
-        <v>1.931831993993427</v>
+        <v>0.7273212540954077</v>
       </c>
       <c r="L20">
-        <v>0.40362588274904</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.710941442598767</v>
       </c>
       <c r="N20">
-        <v>1.0453647392305</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.9270140613597775</v>
+      </c>
+      <c r="P20">
+        <v>1.123978591344773</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.264550889630698</v>
+        <v>1.543798608900602</v>
       </c>
       <c r="C21">
-        <v>0.2176230060657787</v>
+        <v>0.4412580205551819</v>
       </c>
       <c r="D21">
-        <v>0.326909678870507</v>
+        <v>0.3248680862730424</v>
       </c>
       <c r="E21">
-        <v>0.06042554949606327</v>
+        <v>0.5166516318832208</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.432789746219328</v>
+        <v>1.38629483391648</v>
       </c>
       <c r="H21">
-        <v>0.8443896411531</v>
+        <v>0.003739538855735969</v>
       </c>
       <c r="I21">
-        <v>0.89450476409651</v>
+        <v>0.003592574839893281</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.830477304884397</v>
       </c>
       <c r="K21">
-        <v>2.190085232947609</v>
+        <v>0.7799803792299542</v>
       </c>
       <c r="L21">
-        <v>0.4539612736261347</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.937617261491852</v>
       </c>
       <c r="N21">
-        <v>1.002202842132007</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.075100332077703</v>
+      </c>
+      <c r="P21">
+        <v>1.118305230148856</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.438667276312515</v>
+        <v>1.662948031891688</v>
       </c>
       <c r="C22">
-        <v>0.2339311121425709</v>
+        <v>0.4742323013642533</v>
       </c>
       <c r="D22">
-        <v>0.3528312934409428</v>
+        <v>0.3500255728413748</v>
       </c>
       <c r="E22">
-        <v>0.06377062589388416</v>
+        <v>0.5552235724040457</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.507423300356493</v>
+        <v>1.465437059779902</v>
       </c>
       <c r="H22">
-        <v>0.873297640580148</v>
+        <v>0.005368253996148931</v>
       </c>
       <c r="I22">
-        <v>0.9266265820676622</v>
+        <v>0.004671509872644641</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8644165618535453</v>
       </c>
       <c r="K22">
-        <v>2.361225051773914</v>
+        <v>0.8129338750136199</v>
       </c>
       <c r="L22">
-        <v>0.4874945180240076</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.085222217033191</v>
       </c>
       <c r="N22">
-        <v>0.9758575746850227</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.155192511297258</v>
+      </c>
+      <c r="P22">
+        <v>1.11178138890601</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.345498336628566</v>
+        <v>1.602782670432276</v>
       </c>
       <c r="C23">
-        <v>0.2252037961379614</v>
+        <v>0.4550553377208075</v>
       </c>
       <c r="D23">
-        <v>0.338954585090633</v>
+        <v>0.3365793391879208</v>
       </c>
       <c r="E23">
-        <v>0.06197715262798553</v>
+        <v>0.5345464701692606</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.467280545167114</v>
+        <v>1.427570762163725</v>
       </c>
       <c r="H23">
-        <v>0.8577097970260184</v>
+        <v>0.004472246025819304</v>
       </c>
       <c r="I23">
-        <v>0.9093010199856622</v>
+        <v>0.003778373488444231</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.8484990582778096</v>
       </c>
       <c r="K23">
-        <v>2.269649712104382</v>
+        <v>0.7984028217791419</v>
       </c>
       <c r="L23">
-        <v>0.4695345632099048</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.007560120091284</v>
       </c>
       <c r="N23">
-        <v>0.9897407776387439</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.112666392939495</v>
+      </c>
+      <c r="P23">
+        <v>1.118338953027589</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.997577358121987</v>
+        <v>1.369912545498124</v>
       </c>
       <c r="C24">
-        <v>0.1926242891702543</v>
+        <v>0.386101408929278</v>
       </c>
       <c r="D24">
-        <v>0.2872606609128923</v>
+        <v>0.2862474780200301</v>
       </c>
       <c r="E24">
-        <v>0.05535561392131427</v>
+        <v>0.4569080156413463</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.32171641052517</v>
+        <v>1.279201061231504</v>
       </c>
       <c r="H24">
-        <v>0.8020186400650857</v>
+        <v>0.001774446262822638</v>
       </c>
       <c r="I24">
-        <v>0.8474977191629236</v>
+        <v>0.001690527639736317</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7857932953646127</v>
       </c>
       <c r="K24">
-        <v>1.92764663505946</v>
+        <v>0.7392538315542225</v>
       </c>
       <c r="L24">
-        <v>0.4028129646361549</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.713307235163455</v>
       </c>
       <c r="N24">
-        <v>1.046100100970094</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.9519877846169109</v>
+      </c>
+      <c r="P24">
+        <v>1.139248312407283</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.630915534972075</v>
+        <v>1.119773365950891</v>
       </c>
       <c r="C25">
-        <v>0.158260459860017</v>
+        <v>0.3137944753199804</v>
       </c>
       <c r="D25">
-        <v>0.2329996213091619</v>
+        <v>0.2330369802492527</v>
       </c>
       <c r="E25">
-        <v>0.04853113855106628</v>
+        <v>0.3741201506861458</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.17658409237238</v>
+        <v>1.123553708465948</v>
       </c>
       <c r="H25">
-        <v>0.7482054717174123</v>
+        <v>0.0002072548291098819</v>
       </c>
       <c r="I25">
-        <v>0.7879517817609454</v>
+        <v>0.001100806679346533</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7205511946578866</v>
       </c>
       <c r="K25">
-        <v>1.567066420089589</v>
+        <v>0.6772616731454306</v>
       </c>
       <c r="L25">
-        <v>0.3331602323275717</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.399048888726639</v>
       </c>
       <c r="N25">
-        <v>1.114218181871138</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0.7800048757605254</v>
+      </c>
+      <c r="P25">
+        <v>1.164087327532641</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.944168398984857</v>
+        <v>0.8544902129889067</v>
       </c>
       <c r="C2">
-        <v>0.2583208841479063</v>
+        <v>0.2987010495144773</v>
       </c>
       <c r="D2">
-        <v>0.1945858207633364</v>
+        <v>0.1948415340346799</v>
       </c>
       <c r="E2">
-        <v>0.3135674784480997</v>
+        <v>0.3183391575355543</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.022767046682986</v>
+        <v>0.8658411599839297</v>
       </c>
       <c r="H2">
-        <v>4.669395394163445E-05</v>
+        <v>2.08460745838579E-05</v>
       </c>
       <c r="I2">
-        <v>0.001183296720460358</v>
+        <v>0.0008711683103905798</v>
       </c>
       <c r="J2">
-        <v>0.6796945922417024</v>
+        <v>0.6361096108323778</v>
       </c>
       <c r="K2">
-        <v>0.6403809038336163</v>
+        <v>0.5361357755102389</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2495666039410551</v>
       </c>
       <c r="M2">
-        <v>1.172306154285508</v>
+        <v>0.1594535097904917</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6547138600480338</v>
+        <v>1.143293130991367</v>
       </c>
       <c r="P2">
-        <v>1.191982805089218</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6492374284016691</v>
+      </c>
+      <c r="R2">
+        <v>1.074282350187381</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8204330365331032</v>
+        <v>0.7468408682016445</v>
       </c>
       <c r="C3">
-        <v>0.2234981568064001</v>
+        <v>0.2566275908527587</v>
       </c>
       <c r="D3">
-        <v>0.1688603663807129</v>
+        <v>0.1691586930646594</v>
       </c>
       <c r="E3">
-        <v>0.2728559997758069</v>
+        <v>0.2775456939584942</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.9497059151574661</v>
+        <v>0.8127066717785709</v>
       </c>
       <c r="H3">
-        <v>0.0004808958513009554</v>
+        <v>0.0003556334975056696</v>
       </c>
       <c r="I3">
-        <v>0.0022676707213658</v>
+        <v>0.001525444190696668</v>
       </c>
       <c r="J3">
-        <v>0.6497441956093013</v>
+        <v>0.6100203479707318</v>
       </c>
       <c r="K3">
-        <v>0.6116734427817789</v>
+        <v>0.51855211665886</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2494364010775421</v>
       </c>
       <c r="M3">
-        <v>1.017751548824492</v>
+        <v>0.1475241419831796</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5697289960326657</v>
+        <v>0.9946439601857833</v>
       </c>
       <c r="P3">
-        <v>1.207309975734503</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5655416897783496</v>
+      </c>
+      <c r="R3">
+        <v>1.098073797142092</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7442676460364623</v>
+        <v>0.6803098424434211</v>
       </c>
       <c r="C4">
-        <v>0.202456605116268</v>
+        <v>0.2312413400350124</v>
       </c>
       <c r="D4">
-        <v>0.1532039178086109</v>
+        <v>0.1535165887140693</v>
       </c>
       <c r="E4">
-        <v>0.2479409050192913</v>
+        <v>0.2525530053462717</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.905288150891721</v>
+        <v>0.7804622671716288</v>
       </c>
       <c r="H4">
-        <v>0.000993611917794901</v>
+        <v>0.0007810332174147394</v>
       </c>
       <c r="I4">
-        <v>0.003242123229601823</v>
+        <v>0.002167099899038849</v>
       </c>
       <c r="J4">
-        <v>0.6316516206430691</v>
+        <v>0.5939436897822787</v>
       </c>
       <c r="K4">
-        <v>0.5941817227039152</v>
+        <v>0.5077396596318593</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2491876032419889</v>
       </c>
       <c r="M4">
-        <v>0.9230605594578662</v>
+        <v>0.1408776047373941</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5176179233719154</v>
+        <v>0.9034020672908127</v>
       </c>
       <c r="P4">
-        <v>1.216996022140357</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5141809735106619</v>
+      </c>
+      <c r="R4">
+        <v>1.112924210527048</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7123414874641298</v>
+        <v>0.6523229373152333</v>
       </c>
       <c r="C5">
-        <v>0.1943288278465189</v>
+        <v>0.2213858714948458</v>
       </c>
       <c r="D5">
-        <v>0.1468533131528176</v>
+        <v>0.147169373089298</v>
       </c>
       <c r="E5">
-        <v>0.2378204903030223</v>
+        <v>0.2423943919369762</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8861614677020668</v>
+        <v>0.7664124936809316</v>
       </c>
       <c r="H5">
-        <v>0.001262328630980525</v>
+        <v>0.001007760082224474</v>
       </c>
       <c r="I5">
-        <v>0.00379018978685508</v>
+        <v>0.002574285090338968</v>
       </c>
       <c r="J5">
-        <v>0.6237760583971976</v>
+        <v>0.5868483258825563</v>
       </c>
       <c r="K5">
-        <v>0.5862990072415997</v>
+        <v>0.5026507472572277</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2487385693532609</v>
       </c>
       <c r="M5">
-        <v>0.8842254850476365</v>
+        <v>0.1381339826126897</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4963321295646281</v>
+        <v>0.8659469869390932</v>
       </c>
       <c r="P5">
-        <v>1.220156493055057</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4931945620656606</v>
+      </c>
+      <c r="R5">
+        <v>1.118348915467244</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7060174254747835</v>
+        <v>0.6467365961527491</v>
       </c>
       <c r="C6">
-        <v>0.1934370959094451</v>
+        <v>0.2202288303232081</v>
       </c>
       <c r="D6">
-        <v>0.1457989808833133</v>
+        <v>0.1461155995017265</v>
       </c>
       <c r="E6">
-        <v>0.2361617621622543</v>
+        <v>0.2407284074741511</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8816163417713483</v>
+        <v>0.7628699809446715</v>
       </c>
       <c r="H6">
-        <v>0.001311839972945927</v>
+        <v>0.001049668798597914</v>
       </c>
       <c r="I6">
-        <v>0.003987360734166501</v>
+        <v>0.00276209023969276</v>
       </c>
       <c r="J6">
-        <v>0.6217733978410251</v>
+        <v>0.5850244767663213</v>
       </c>
       <c r="K6">
-        <v>0.5840335520723912</v>
+        <v>0.5009797038478894</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2482896769653706</v>
       </c>
       <c r="M6">
-        <v>0.8774306715098703</v>
+        <v>0.1374391875054215</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4927242874555233</v>
+        <v>0.8593978378704321</v>
       </c>
       <c r="P6">
-        <v>1.219645891449836</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4896394107206916</v>
+      </c>
+      <c r="R6">
+        <v>1.118418839748543</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.741042328943621</v>
+        <v>0.6767544342018823</v>
       </c>
       <c r="C7">
-        <v>0.2035874824135817</v>
+        <v>0.2316900644252087</v>
       </c>
       <c r="D7">
-        <v>0.1531136664149813</v>
+        <v>0.1534238365765788</v>
       </c>
       <c r="E7">
-        <v>0.2478614387913254</v>
+        <v>0.252586598493977</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.9012709372330932</v>
+        <v>0.7804513825321067</v>
       </c>
       <c r="H7">
-        <v>0.001000335659034013</v>
+        <v>0.0007884404785871713</v>
       </c>
       <c r="I7">
-        <v>0.003509929208046714</v>
+        <v>0.002476897301741943</v>
       </c>
       <c r="J7">
-        <v>0.6296358571451321</v>
+        <v>0.5850300173918015</v>
       </c>
       <c r="K7">
-        <v>0.5914562493808262</v>
+        <v>0.5043986454161029</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2477350936632021</v>
       </c>
       <c r="M7">
-        <v>0.9215813986627381</v>
+        <v>0.1398242983871789</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5171282903501364</v>
+        <v>0.9005855624286312</v>
       </c>
       <c r="P7">
-        <v>1.21421175885478</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.513414081619942</v>
+      </c>
+      <c r="R7">
+        <v>1.109563080267705</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8977961816809454</v>
+        <v>0.8119597567669814</v>
       </c>
       <c r="C8">
-        <v>0.2478930192662574</v>
+        <v>0.2834226670472333</v>
       </c>
       <c r="D8">
-        <v>0.1856772332243253</v>
+        <v>0.185939699598265</v>
       </c>
       <c r="E8">
-        <v>0.29958475437234</v>
+        <v>0.3047198040404027</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.9924889009294731</v>
+        <v>0.8547681559338685</v>
       </c>
       <c r="H8">
-        <v>0.000144940417580397</v>
+        <v>9.204344639979212E-05</v>
       </c>
       <c r="I8">
-        <v>0.001797139210794718</v>
+        <v>0.001410884395687262</v>
       </c>
       <c r="J8">
-        <v>0.6667765782564032</v>
+        <v>0.6016117805481969</v>
       </c>
       <c r="K8">
-        <v>0.626982823493023</v>
+        <v>0.5237615555785808</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2469316205087821</v>
       </c>
       <c r="M8">
-        <v>1.117678915091602</v>
+        <v>0.1530711366831952</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6251189134196622</v>
+        <v>1.086087766255531</v>
       </c>
       <c r="P8">
-        <v>1.193526454920011</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6191307005856785</v>
+      </c>
+      <c r="R8">
+        <v>1.075790135210553</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.209105699701865</v>
+        <v>1.080733477224157</v>
       </c>
       <c r="C9">
-        <v>0.3356350778531692</v>
+        <v>0.3890770481941104</v>
       </c>
       <c r="D9">
-        <v>0.2508488985832003</v>
+        <v>0.250912920970876</v>
       </c>
       <c r="E9">
-        <v>0.4018043595412735</v>
+        <v>0.4070729605716181</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.182254142096298</v>
+        <v>0.9972720005786613</v>
       </c>
       <c r="H9">
-        <v>0.0005743581698509637</v>
+        <v>0.0005968446046515918</v>
       </c>
       <c r="I9">
-        <v>0.0006923646979268838</v>
+        <v>0.0008935190284002914</v>
       </c>
       <c r="J9">
-        <v>0.7456639527119222</v>
+        <v>0.6620811812655063</v>
       </c>
       <c r="K9">
-        <v>0.7026357009628228</v>
+        <v>0.5694328644389657</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2473045992048526</v>
       </c>
       <c r="M9">
-        <v>1.506354843860095</v>
+        <v>0.1870434557370757</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8381786566581866</v>
+        <v>1.457415211926815</v>
       </c>
       <c r="P9">
-        <v>1.160302059439665</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.8283860034446064</v>
+      </c>
+      <c r="R9">
+        <v>1.019764176217471</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.434413566901014</v>
+        <v>1.271176043344781</v>
       </c>
       <c r="C10">
-        <v>0.4002153602144745</v>
+        <v>0.4620562044971734</v>
       </c>
       <c r="D10">
-        <v>0.2997655247466895</v>
+        <v>0.2995631840695125</v>
       </c>
       <c r="E10">
-        <v>0.4470161171559468</v>
+        <v>0.4526523214234146</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.303967842517011</v>
+        <v>1.10866298537448</v>
       </c>
       <c r="H10">
-        <v>0.002386353968659716</v>
+        <v>0.002286956004976304</v>
       </c>
       <c r="I10">
-        <v>0.001848127694831447</v>
+        <v>0.002055644729186845</v>
       </c>
       <c r="J10">
-        <v>0.7950762452770164</v>
+        <v>0.6585199671192328</v>
       </c>
       <c r="K10">
-        <v>0.7478237249008828</v>
+        <v>0.5887366003775583</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2416294368211496</v>
       </c>
       <c r="M10">
-        <v>1.788624515189895</v>
+        <v>0.2097476442049313</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9615345525652117</v>
+        <v>1.717847887101073</v>
       </c>
       <c r="P10">
-        <v>1.123182064386519</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9472331240438834</v>
+      </c>
+      <c r="R10">
+        <v>0.9643719835649875</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.516321638112402</v>
+        <v>1.344134085921866</v>
       </c>
       <c r="C11">
-        <v>0.4061779938955397</v>
+        <v>0.4564052686724267</v>
       </c>
       <c r="D11">
-        <v>0.321820136240774</v>
+        <v>0.3214840909146233</v>
       </c>
       <c r="E11">
-        <v>0.2417222903975258</v>
+        <v>0.2463213908817536</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.190296572635319</v>
+        <v>1.054284947375095</v>
       </c>
       <c r="H11">
-        <v>0.02047167423890883</v>
+        <v>0.02033655894921793</v>
       </c>
       <c r="I11">
-        <v>0.002813889319805973</v>
+        <v>0.003033366479111343</v>
       </c>
       <c r="J11">
-        <v>0.7330303273479046</v>
+        <v>0.533454972402069</v>
       </c>
       <c r="K11">
-        <v>0.6781820712494309</v>
+        <v>0.521279765124099</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2124308000253876</v>
       </c>
       <c r="M11">
-        <v>1.868977420969827</v>
+        <v>0.1896692913268652</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7405157640060835</v>
+        <v>1.778891996708751</v>
       </c>
       <c r="P11">
-        <v>0.9990023576790534</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7248951416232714</v>
+      </c>
+      <c r="R11">
+        <v>0.8629802382940319</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.542319890655421</v>
+        <v>1.372146645115492</v>
       </c>
       <c r="C12">
-        <v>0.395438089290792</v>
+        <v>0.4369146045532375</v>
       </c>
       <c r="D12">
-        <v>0.3300300651855679</v>
+        <v>0.3296602999300404</v>
       </c>
       <c r="E12">
-        <v>0.1147958123990129</v>
+        <v>0.1176959314770336</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.078307016603119</v>
+        <v>0.9778950019320405</v>
       </c>
       <c r="H12">
-        <v>0.05866664772397456</v>
+        <v>0.05854452593565895</v>
       </c>
       <c r="I12">
-        <v>0.002878133841832664</v>
+        <v>0.003075800993961764</v>
       </c>
       <c r="J12">
-        <v>0.6747505023341773</v>
+        <v>0.461900825896663</v>
       </c>
       <c r="K12">
-        <v>0.616403721703783</v>
+        <v>0.4698540732986274</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1928740176935051</v>
       </c>
       <c r="M12">
-        <v>1.877949427016517</v>
+        <v>0.1711155500995005</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5547359098596587</v>
+        <v>1.781495460735897</v>
       </c>
       <c r="P12">
-        <v>0.918094247857951</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5403788018070728</v>
+      </c>
+      <c r="R12">
+        <v>0.8080818299416386</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.522016344117532</v>
+        <v>1.364741904990751</v>
       </c>
       <c r="C13">
-        <v>0.3732386422315983</v>
+        <v>0.4094179690384294</v>
       </c>
       <c r="D13">
-        <v>0.3278953657276418</v>
+        <v>0.3275870024015433</v>
       </c>
       <c r="E13">
-        <v>0.04058946926324936</v>
+        <v>0.04151646247393259</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.9553751886222983</v>
+        <v>0.8679952301913261</v>
       </c>
       <c r="H13">
-        <v>0.1139179655150855</v>
+        <v>0.1138384473446052</v>
       </c>
       <c r="I13">
-        <v>0.002565239033248901</v>
+        <v>0.002809312743054626</v>
       </c>
       <c r="J13">
-        <v>0.6130119420348166</v>
+        <v>0.4285149330390823</v>
       </c>
       <c r="K13">
-        <v>0.5530161192941776</v>
+        <v>0.4254373817617036</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1780510846202752</v>
       </c>
       <c r="M13">
-        <v>1.830775641391995</v>
+        <v>0.1522939023127599</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3861128689494606</v>
+        <v>1.74152578327076</v>
       </c>
       <c r="P13">
-        <v>0.8606863283158148</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3749829340804141</v>
+      </c>
+      <c r="R13">
+        <v>0.7797272306034273</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.486060516122507</v>
+        <v>1.342689402684556</v>
       </c>
       <c r="C14">
-        <v>0.3530669107138067</v>
+        <v>0.3869170655324297</v>
       </c>
       <c r="D14">
-        <v>0.3217266512460668</v>
+        <v>0.3215007900919176</v>
       </c>
       <c r="E14">
-        <v>0.01996490544897078</v>
+        <v>0.01967832348460408</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.8646945292492347</v>
+        <v>0.7781047343056002</v>
       </c>
       <c r="H14">
-        <v>0.162950583721809</v>
+        <v>0.1629041588509352</v>
       </c>
       <c r="I14">
-        <v>0.002291974505252981</v>
+        <v>0.002600814704125654</v>
       </c>
       <c r="J14">
-        <v>0.5683110655539565</v>
+        <v>0.4186568781745024</v>
       </c>
       <c r="K14">
-        <v>0.5079420761563256</v>
+        <v>0.3967791827224758</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1693269490592613</v>
       </c>
       <c r="M14">
-        <v>1.772311450636039</v>
+        <v>0.1389483245322154</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2804298725820473</v>
+        <v>1.693949256868905</v>
       </c>
       <c r="P14">
-        <v>0.8321462082920021</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2720202212445741</v>
+      </c>
+      <c r="R14">
+        <v>0.7709887039793966</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.466299172502517</v>
+        <v>1.328531349994165</v>
       </c>
       <c r="C15">
-        <v>0.3462255833001961</v>
+        <v>0.3800348591824445</v>
       </c>
       <c r="D15">
-        <v>0.3180216375670568</v>
+        <v>0.3178343186033743</v>
       </c>
       <c r="E15">
-        <v>0.01894604381788589</v>
+        <v>0.01844681527263958</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.8387974401142628</v>
+        <v>0.7493594578850207</v>
       </c>
       <c r="H15">
-        <v>0.1753515127105914</v>
+        <v>0.1753167353149934</v>
       </c>
       <c r="I15">
-        <v>0.002270566829297493</v>
+        <v>0.002624883347325024</v>
       </c>
       <c r="J15">
-        <v>0.555969843160895</v>
+        <v>0.4214066622776613</v>
       </c>
       <c r="K15">
-        <v>0.4956015318798705</v>
+        <v>0.390008238116252</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1676261244178043</v>
       </c>
       <c r="M15">
-        <v>1.745882979727611</v>
+        <v>0.1352665848625421</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2551828499403825</v>
+        <v>1.672712636436785</v>
       </c>
       <c r="P15">
-        <v>0.8281737966183229</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2476480296491914</v>
+      </c>
+      <c r="R15">
+        <v>0.7720169063041173</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.371755500855016</v>
+        <v>1.252530245866438</v>
       </c>
       <c r="C16">
-        <v>0.3240237541077988</v>
+        <v>0.3616542382047783</v>
       </c>
       <c r="D16">
-        <v>0.2971213212435373</v>
+        <v>0.2970948762576455</v>
       </c>
       <c r="E16">
-        <v>0.01768212850595452</v>
+        <v>0.01765003855676583</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.8112019427823327</v>
+        <v>0.6969057068028519</v>
       </c>
       <c r="H16">
-        <v>0.1621909896993685</v>
+        <v>0.1621892574731163</v>
       </c>
       <c r="I16">
-        <v>0.001870314477816493</v>
+        <v>0.002295952667085821</v>
       </c>
       <c r="J16">
-        <v>0.5468549939449616</v>
+        <v>0.4702413932796077</v>
       </c>
       <c r="K16">
-        <v>0.488399296335885</v>
+        <v>0.3959054338198129</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1732241898331353</v>
       </c>
       <c r="M16">
-        <v>1.633968931003693</v>
+        <v>0.1326349795140516</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2424485652305002</v>
+        <v>1.581970195395201</v>
       </c>
       <c r="P16">
-        <v>0.8531021069094678</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2370593928941638</v>
+      </c>
+      <c r="R16">
+        <v>0.7989550013654689</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.318363474712271</v>
+        <v>1.204832576521397</v>
       </c>
       <c r="C17">
-        <v>0.3177494631933939</v>
+        <v>0.3585770506532526</v>
       </c>
       <c r="D17">
-        <v>0.284454793998691</v>
+        <v>0.2844963083812075</v>
       </c>
       <c r="E17">
-        <v>0.0222738160806264</v>
+        <v>0.02292033000931859</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.8374666984675088</v>
+        <v>0.7071487613940945</v>
       </c>
       <c r="H17">
-        <v>0.1242310912777214</v>
+        <v>0.1242352982050789</v>
       </c>
       <c r="I17">
-        <v>0.00176266446963691</v>
+        <v>0.002197945279584168</v>
       </c>
       <c r="J17">
-        <v>0.5633282450376242</v>
+        <v>0.5091495684457357</v>
       </c>
       <c r="K17">
-        <v>0.5063943257896568</v>
+        <v>0.4148275617137713</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1822367681939809</v>
       </c>
       <c r="M17">
-        <v>1.579261545024309</v>
+        <v>0.1370959262992386</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2853818074307313</v>
+        <v>1.535382897514609</v>
       </c>
       <c r="P17">
-        <v>0.8866084259999312</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2803660409561743</v>
+      </c>
+      <c r="R17">
+        <v>0.8252990023823621</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.296532074105869</v>
+        <v>1.179847030122374</v>
       </c>
       <c r="C18">
-        <v>0.3234244802073931</v>
+        <v>0.368871724421183</v>
       </c>
       <c r="D18">
-        <v>0.2773266298280959</v>
+        <v>0.2773824883557694</v>
       </c>
       <c r="E18">
-        <v>0.05934822404063667</v>
+        <v>0.06094846895008743</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.9179045489039481</v>
+        <v>0.7688499288329211</v>
       </c>
       <c r="H18">
-        <v>0.07140610061495778</v>
+        <v>0.07141272007627464</v>
       </c>
       <c r="I18">
-        <v>0.001510139796117471</v>
+        <v>0.001895603737523288</v>
       </c>
       <c r="J18">
-        <v>0.6059821593890007</v>
+        <v>0.5558958380629662</v>
       </c>
       <c r="K18">
-        <v>0.55130490727759</v>
+        <v>0.4515218499928011</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1969583828713333</v>
       </c>
       <c r="M18">
-        <v>1.567902428277847</v>
+        <v>0.1496140973547497</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3946437052815241</v>
+        <v>1.525306656561213</v>
       </c>
       <c r="P18">
-        <v>0.938451845527787</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3889040454941153</v>
+      </c>
+      <c r="R18">
+        <v>0.8607032530566059</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.296155280885756</v>
+        <v>1.170652004900489</v>
       </c>
       <c r="C19">
-        <v>0.3408426987206497</v>
+        <v>0.3925698089229854</v>
       </c>
       <c r="D19">
-        <v>0.2751195462652589</v>
+        <v>0.2751516278488708</v>
       </c>
       <c r="E19">
-        <v>0.1607192811431197</v>
+        <v>0.1635494025710997</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.034356039975719</v>
+        <v>0.8629263095936608</v>
       </c>
       <c r="H19">
-        <v>0.02642255929532666</v>
+        <v>0.02643048645661139</v>
       </c>
       <c r="I19">
-        <v>0.001667030560476235</v>
+        <v>0.002080621499330526</v>
       </c>
       <c r="J19">
-        <v>0.6654426641323568</v>
+        <v>0.6086588176440415</v>
       </c>
       <c r="K19">
-        <v>0.6130662201091042</v>
+        <v>0.4989765861188644</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2148684831427836</v>
       </c>
       <c r="M19">
-        <v>1.590338254439757</v>
+        <v>0.1673434697331615</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.570387292581394</v>
+        <v>1.544913805817345</v>
       </c>
       <c r="P19">
-        <v>1.00727307857386</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5630701393652231</v>
+      </c>
+      <c r="R19">
+        <v>0.9061731421498926</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.366130029441905</v>
+        <v>1.215457576889804</v>
       </c>
       <c r="C20">
-        <v>0.3869235081660918</v>
+        <v>0.4494035528802272</v>
       </c>
       <c r="D20">
-        <v>0.2868085167487493</v>
+        <v>0.2867046990995163</v>
       </c>
       <c r="E20">
-        <v>0.4339536597120386</v>
+        <v>0.4390854283466439</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.259205063211681</v>
+        <v>1.055283075891367</v>
       </c>
       <c r="H20">
-        <v>0.001775709750826859</v>
+        <v>0.001730715329620214</v>
       </c>
       <c r="I20">
-        <v>0.002148962295653867</v>
+        <v>0.002559156201702883</v>
       </c>
       <c r="J20">
-        <v>0.7756331240841803</v>
+        <v>0.6781354119989516</v>
       </c>
       <c r="K20">
-        <v>0.7273212540954077</v>
+        <v>0.5801342296456227</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.241841163490399</v>
       </c>
       <c r="M20">
-        <v>1.710941442598767</v>
+        <v>0.2022292548521776</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9270140613597775</v>
+        <v>1.651486841442221</v>
       </c>
       <c r="P20">
-        <v>1.123978591344773</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.9150485074969481</v>
+      </c>
+      <c r="R20">
+        <v>0.9759687016710501</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.543798608900602</v>
+        <v>1.350956541224548</v>
       </c>
       <c r="C21">
-        <v>0.4412580205551819</v>
+        <v>0.4973767321889682</v>
       </c>
       <c r="D21">
-        <v>0.3248680862730424</v>
+        <v>0.3244121199103915</v>
       </c>
       <c r="E21">
-        <v>0.5166516318832208</v>
+        <v>0.5246528559284016</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.38629483391648</v>
+        <v>1.239577356259559</v>
       </c>
       <c r="H21">
-        <v>0.003739538855735969</v>
+        <v>0.003466670519304715</v>
       </c>
       <c r="I21">
-        <v>0.003592574839893281</v>
+        <v>0.003733552573466525</v>
       </c>
       <c r="J21">
-        <v>0.830477304884397</v>
+        <v>0.5692599151459348</v>
       </c>
       <c r="K21">
-        <v>0.7799803792299542</v>
+        <v>0.5897713781857092</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2357537948993809</v>
       </c>
       <c r="M21">
-        <v>1.937617261491852</v>
+        <v>0.2183103317108959</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.075100332077703</v>
+        <v>1.831960739012288</v>
       </c>
       <c r="P21">
-        <v>1.118305230148856</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.053111229122351</v>
+      </c>
+      <c r="R21">
+        <v>0.930386164113898</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.662948031891688</v>
+        <v>1.441298978642322</v>
       </c>
       <c r="C22">
-        <v>0.4742323013642533</v>
+        <v>0.5244126920211727</v>
       </c>
       <c r="D22">
-        <v>0.3500255728413748</v>
+        <v>0.3492989768696617</v>
       </c>
       <c r="E22">
-        <v>0.5552235724040457</v>
+        <v>0.5652188101917588</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.465437059779902</v>
+        <v>1.366883110482092</v>
       </c>
       <c r="H22">
-        <v>0.005368253996148931</v>
+        <v>0.004885039406621772</v>
       </c>
       <c r="I22">
-        <v>0.004671509872644641</v>
+        <v>0.004424249666693747</v>
       </c>
       <c r="J22">
-        <v>0.8644165618535453</v>
+        <v>0.4971402546476895</v>
       </c>
       <c r="K22">
-        <v>0.8129338750136199</v>
+        <v>0.5934807357558611</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2309503096607273</v>
       </c>
       <c r="M22">
-        <v>2.085222217033191</v>
+        <v>0.228159572620747</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.155192511297258</v>
+        <v>1.946529825865099</v>
       </c>
       <c r="P22">
-        <v>1.11178138890601</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.126106165260552</v>
+      </c>
+      <c r="R22">
+        <v>0.8979059241433731</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.602782670432276</v>
+        <v>1.397922991067674</v>
       </c>
       <c r="C23">
-        <v>0.4550553377208075</v>
+        <v>0.510357545661833</v>
       </c>
       <c r="D23">
-        <v>0.3365793391879208</v>
+        <v>0.3360118448864569</v>
       </c>
       <c r="E23">
-        <v>0.5345464701692606</v>
+        <v>0.5431365041052345</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.427570762163725</v>
+        <v>1.292229571222009</v>
       </c>
       <c r="H23">
-        <v>0.004472246025819304</v>
+        <v>0.004113883398852325</v>
       </c>
       <c r="I23">
-        <v>0.003778373488444231</v>
+        <v>0.003696253072127398</v>
       </c>
       <c r="J23">
-        <v>0.8484990582778096</v>
+        <v>0.5511348967639549</v>
       </c>
       <c r="K23">
-        <v>0.7984028217791419</v>
+        <v>0.5965484356890798</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2352363798173656</v>
       </c>
       <c r="M23">
-        <v>2.007560120091284</v>
+        <v>0.224942700196614</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.112666392939495</v>
+        <v>1.890390991900944</v>
       </c>
       <c r="P23">
-        <v>1.118338953027589</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.088197567931992</v>
+      </c>
+      <c r="R23">
+        <v>0.9198139410084707</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.369912545498124</v>
+        <v>1.218072740347907</v>
       </c>
       <c r="C24">
-        <v>0.386101408929278</v>
+        <v>0.4491790346236542</v>
       </c>
       <c r="D24">
-        <v>0.2862474780200301</v>
+        <v>0.2861408749589174</v>
       </c>
       <c r="E24">
-        <v>0.4569080156413463</v>
+        <v>0.4621778421781642</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.279201061231504</v>
+        <v>1.071441841876222</v>
       </c>
       <c r="H24">
-        <v>0.001774446262822638</v>
+        <v>0.001726355980367966</v>
       </c>
       <c r="I24">
-        <v>0.001690527639736317</v>
+        <v>0.001999141013685701</v>
       </c>
       <c r="J24">
-        <v>0.7857932953646127</v>
+        <v>0.6879657472752285</v>
       </c>
       <c r="K24">
-        <v>0.7392538315542225</v>
+        <v>0.5897523704359742</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2454952951573972</v>
       </c>
       <c r="M24">
-        <v>1.713307235163455</v>
+        <v>0.2057976836263435</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9519877846169109</v>
+        <v>1.653703688476298</v>
       </c>
       <c r="P24">
-        <v>1.139248312407283</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.9398319957212493</v>
+      </c>
+      <c r="R24">
+        <v>0.9870855400127923</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.119773365950891</v>
+        <v>1.00456412730523</v>
       </c>
       <c r="C25">
-        <v>0.3137944753199804</v>
+        <v>0.3634711163374789</v>
       </c>
       <c r="D25">
-        <v>0.2330369802492527</v>
+        <v>0.2331769151694658</v>
       </c>
       <c r="E25">
-        <v>0.3741201506861458</v>
+        <v>0.3792171033278962</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.123553708465948</v>
+        <v>0.9471967147371885</v>
       </c>
       <c r="H25">
-        <v>0.0002072548291098819</v>
+        <v>0.0002384247884048563</v>
       </c>
       <c r="I25">
-        <v>0.001100806679346533</v>
+        <v>0.001296057668723094</v>
       </c>
       <c r="J25">
-        <v>0.7205511946578866</v>
+        <v>0.6525755940423466</v>
       </c>
       <c r="K25">
-        <v>0.6772616731454306</v>
+        <v>0.5545187967132605</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2463651889357443</v>
       </c>
       <c r="M25">
-        <v>1.399048888726639</v>
+        <v>0.1763178979547924</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7800048757605254</v>
+        <v>1.357163690205738</v>
       </c>
       <c r="P25">
-        <v>1.164087327532641</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.7717384505303855</v>
+      </c>
+      <c r="R25">
+        <v>1.032509159255071</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
